--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -61,7 +61,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -496,7 +496,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -556,7 +556,7 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 2</t>
+    <t>nikkhipati 3</t>
   </si>
   <si>
     <t>bhajati 1</t>
@@ -697,7 +697,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1294,7 +1294,7 @@
     <t>dhītar</t>
   </si>
   <si>
-    <t>samādāya 1</t>
+    <t>samādāya 2</t>
   </si>
   <si>
     <t>āgamma 1</t>
@@ -1306,7 +1306,7 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 3</t>
+    <t>ādāya 4</t>
   </si>
   <si>
     <t>upasampajja</t>
@@ -1477,7 +1477,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -1486,7 +1486,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -1594,7 +1594,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -2086,7 +2086,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="977">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,7 +49,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -64,7 +64,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -91,7 +91,7 @@
     <t>vasa 2</t>
   </si>
   <si>
-    <t>vaccha</t>
+    <t>vaccha 1</t>
   </si>
   <si>
     <t>puggala</t>
@@ -100,7 +100,7 @@
     <t>āsaya 2</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -109,7 +109,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>antarāya</t>
@@ -145,7 +145,7 @@
     <t>sāriputta</t>
   </si>
   <si>
-    <t>pañha</t>
+    <t>pañha 2</t>
   </si>
   <si>
     <t>ābādha</t>
@@ -154,7 +154,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -175,7 +175,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -184,7 +184,7 @@
     <t>ānanda 2</t>
   </si>
   <si>
-    <t>ānisaṃsa</t>
+    <t>ānisaṃsa 1</t>
   </si>
   <si>
     <t>vāta 1</t>
@@ -241,10 +241,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -256,7 +256,7 @@
     <t>samatha 1</t>
   </si>
   <si>
-    <t>pallaṅka</t>
+    <t>pallaṅka 2</t>
   </si>
   <si>
     <t>anālaya 1</t>
@@ -310,7 +310,7 @@
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>amanasikāra</t>
+    <t>amanasikāra 1</t>
   </si>
   <si>
     <t>uddesa 1</t>
@@ -361,13 +361,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -400,7 +400,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -439,19 +439,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -463,7 +463,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -475,7 +475,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>vattati 1</t>
@@ -520,7 +520,7 @@
     <t>icchati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>upasaṅkamati</t>
@@ -529,7 +529,7 @@
     <t>bhāsati 1</t>
   </si>
   <si>
-    <t>yācati</t>
+    <t>yācati 1</t>
   </si>
   <si>
     <t>harati 2</t>
@@ -538,7 +538,7 @@
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>gaṇhati</t>
+    <t>gaṇhati 1</t>
   </si>
   <si>
     <t>passati 2</t>
@@ -547,7 +547,7 @@
     <t>jahati 1</t>
   </si>
   <si>
-    <t>sikkhati</t>
+    <t>sikkhati 2</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
@@ -583,7 +583,7 @@
     <t>gacchati 1</t>
   </si>
   <si>
-    <t>padahati</t>
+    <t>padahati 1</t>
   </si>
   <si>
     <t>vāyamati</t>
@@ -598,7 +598,7 @@
     <t>pavisati</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -622,10 +622,10 @@
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
@@ -634,7 +634,7 @@
     <t>paggaṇhāti 3</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -658,7 +658,7 @@
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>jānāti</t>
+    <t>jānāti 1</t>
   </si>
   <si>
     <t>pāpuṇāti 1</t>
@@ -688,7 +688,7 @@
     <t>maññati 1</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -700,7 +700,7 @@
     <t>jhāyati 2</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>āpajjati 5</t>
@@ -715,10 +715,10 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>attha 12</t>
@@ -739,7 +739,7 @@
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu</t>
+    <t>hotu 1</t>
   </si>
   <si>
     <t>hoti 1</t>
@@ -772,7 +772,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -787,10 +787,10 @@
     <t>isi</t>
   </si>
   <si>
-    <t>añjali</t>
-  </si>
-  <si>
-    <t>samādhi</t>
+    <t>añjali 1</t>
+  </si>
+  <si>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>gāmaṇi</t>
@@ -802,7 +802,7 @@
     <t>ñāti</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
@@ -811,7 +811,7 @@
     <t>sakkaroti</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>ajjhabhāsi</t>
@@ -871,22 +871,22 @@
     <t>no 7</t>
   </si>
   <si>
-    <t>amhākaṃ 1</t>
+    <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>ahaṃ</t>
   </si>
   <si>
-    <t>maṃ</t>
+    <t>maṃ 1</t>
   </si>
   <si>
     <t>me 3</t>
   </si>
   <si>
-    <t>sobhati</t>
-  </si>
-  <si>
-    <t>neti 2</t>
+    <t>sobhati 2</t>
+  </si>
+  <si>
+    <t>neti 1</t>
   </si>
   <si>
     <t>no 3</t>
@@ -952,7 +952,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tvaṃ</t>
+    <t>tvaṃ 1</t>
   </si>
   <si>
     <t>te 6</t>
@@ -967,7 +967,7 @@
     <t>vo 4</t>
   </si>
   <si>
-    <t>nābhijānāti</t>
+    <t>nābhijānāti 1</t>
   </si>
   <si>
     <t>ottappī</t>
@@ -979,6 +979,9 @@
     <t>vihārī</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -1003,9 +1006,6 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>dassī 2</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -1042,16 +1042,16 @@
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant</t>
-  </si>
-  <si>
-    <t>satthar</t>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
+    <t>satthar 1</t>
   </si>
   <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar</t>
+    <t>dātar 1</t>
   </si>
   <si>
     <t>pitar</t>
@@ -1093,7 +1093,7 @@
     <t>ajja</t>
   </si>
   <si>
-    <t>pubbe</t>
+    <t>pubbe 1</t>
   </si>
   <si>
     <t>garu 5</t>
@@ -1129,13 +1129,13 @@
     <t>gāha 4</t>
   </si>
   <si>
-    <t>paṭighāta</t>
+    <t>paṭighāta 1</t>
   </si>
   <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>passeyya 2</t>
+    <t>passeyya 1</t>
   </si>
   <si>
     <t>jāneyya</t>
@@ -1153,10 +1153,10 @@
     <t>hanati 3</t>
   </si>
   <si>
-    <t>kareyya</t>
-  </si>
-  <si>
-    <t>siyā</t>
+    <t>kareyya 1</t>
+  </si>
+  <si>
+    <t>siyā 2</t>
   </si>
   <si>
     <t>assa 3</t>
@@ -1171,7 +1171,7 @@
     <t>sikkhā 2</t>
   </si>
   <si>
-    <t>gāthā 2</t>
+    <t>gāthā 1</t>
   </si>
   <si>
     <t>jarā</t>
@@ -1186,7 +1186,7 @@
     <t>senā</t>
   </si>
   <si>
-    <t>sākhā</t>
+    <t>sākhā 1</t>
   </si>
   <si>
     <t>bāhā 1</t>
@@ -1195,7 +1195,7 @@
     <t>vācā 1</t>
   </si>
   <si>
-    <t>taṇhā</t>
+    <t>taṇhā 1</t>
   </si>
   <si>
     <t>vedanā 1</t>
@@ -1204,7 +1204,7 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā</t>
+    <t>sālā 1</t>
   </si>
   <si>
     <t>upāsikā</t>
@@ -1243,7 +1243,7 @@
     <t>saddhā 1</t>
   </si>
   <si>
-    <t>vijjā</t>
+    <t>vijjā 1</t>
   </si>
   <si>
     <t>vipassanā</t>
@@ -1255,7 +1255,7 @@
     <t>ovāda</t>
   </si>
   <si>
-    <t>gahetvā 2</t>
+    <t>gahetvā 5</t>
   </si>
   <si>
     <t>acchādetvā</t>
@@ -1276,13 +1276,13 @@
     <t>ābhujitvā</t>
   </si>
   <si>
-    <t>katvāna</t>
+    <t>katvāna 1</t>
   </si>
   <si>
     <t>gahetvā 1</t>
   </si>
   <si>
-    <t>karitvā</t>
+    <t>karitvā 1</t>
   </si>
   <si>
     <t>upasaṅkamitvā</t>
@@ -1309,7 +1309,7 @@
     <t>ādāya 4</t>
   </si>
   <si>
-    <t>upasampajja</t>
+    <t>upasampajja 1</t>
   </si>
   <si>
     <t>vivicca</t>
@@ -1321,13 +1321,13 @@
     <t>nisajja</t>
   </si>
   <si>
-    <t>diṭṭhi</t>
-  </si>
-  <si>
-    <t>sati 1</t>
-  </si>
-  <si>
-    <t>ṭhiti</t>
+    <t>diṭṭhi 1</t>
+  </si>
+  <si>
+    <t>sati 2</t>
+  </si>
+  <si>
+    <t>ṭhiti 1</t>
   </si>
   <si>
     <t>visuddhi 1</t>
@@ -1351,7 +1351,7 @@
     <t>passaddhi</t>
   </si>
   <si>
-    <t>saṅghāṭi</t>
+    <t>saṅghāṭi 1</t>
   </si>
   <si>
     <t>vimutti</t>
@@ -1360,7 +1360,7 @@
     <t>yattha</t>
   </si>
   <si>
-    <t>ettha</t>
+    <t>ettha 1</t>
   </si>
   <si>
     <t>idha 2</t>
@@ -1369,7 +1369,7 @@
     <t>ekato 1</t>
   </si>
   <si>
-    <t>sabbattha</t>
+    <t>sabbattha 1</t>
   </si>
   <si>
     <t>tattha 1</t>
@@ -1390,7 +1390,7 @@
     <t>pipāsā</t>
   </si>
   <si>
-    <t>itthī</t>
+    <t>itthī 1</t>
   </si>
   <si>
     <t>nārī</t>
@@ -1405,7 +1405,7 @@
     <t>vesālī</t>
   </si>
   <si>
-    <t>bārāṇasī</t>
+    <t>bārāṇasī 1</t>
   </si>
   <si>
     <t>bhikkhunī</t>
@@ -1954,7 +1954,7 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>takes; holds of; grasps</t>
+    <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
     <t>understands; gets; lit. sees</t>
@@ -1963,7 +1963,7 @@
     <t>leaves; abandons; gives up; forsakes</t>
   </si>
   <si>
-    <t>learns; trains; practises</t>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -2014,7 +2014,7 @@
     <t>enters; goes into</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>
@@ -2074,9 +2074,6 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>knows; understands; is aware; finds out</t>
-  </si>
-  <si>
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
@@ -2218,7 +2215,7 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
@@ -2227,7 +2224,7 @@
     <t>honours; esteems; respects; lit. makes properly</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
@@ -2257,7 +2254,7 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
-    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
     <t>false teaching; against the teaching</t>
@@ -2296,7 +2293,7 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>shines; radiates; looks beautiful</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>leads; carries away; takes away</t>
@@ -2389,6 +2386,9 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -2413,10 +2413,7 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>who sees; who knows; who perceives; who understands</t>
-  </si>
-  <si>
-    <t>who is happy; at ease; comfortable</t>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
@@ -2563,10 +2560,10 @@
     <t>punishes; flogs; beats</t>
   </si>
   <si>
-    <t>could do; could make</t>
-  </si>
-  <si>
-    <t>could be; may be; might be</t>
+    <t>could do; would do</t>
+  </si>
+  <si>
+    <t>there could be</t>
   </si>
   <si>
     <t>may be; would be; could be</t>
@@ -2647,7 +2644,7 @@
     <t>perception; conception; recognition; third of the five aggregates</t>
   </si>
   <si>
-    <t>faith; confidence; lit. putting heart</t>
+    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
   </si>
   <si>
     <t>knowledge; wisdom; understanding</t>
@@ -2683,15 +2680,12 @@
     <t>having bent; having folded</t>
   </si>
   <si>
-    <t>having done; having made</t>
+    <t>having done</t>
   </si>
   <si>
     <t>having taken; having grabbed hold of</t>
   </si>
   <si>
-    <t>having done; having made; having built</t>
-  </si>
-  <si>
     <t>having approached; having gone (to); having drawn near (to)</t>
   </si>
   <si>
@@ -2731,7 +2725,7 @@
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
-    <t>memory; mindfulness; presence; recollection; awareness</t>
+    <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
     <t>stability; constancy; long lasting; persisting; lit. standing</t>
@@ -2782,7 +2776,7 @@
     <t>there; in that place</t>
   </si>
   <si>
-    <t>above; over; upon; on</t>
+    <t>above; overhead</t>
   </si>
   <si>
     <t>in that regard; in that case; regarding that matter</t>
@@ -3342,10 +3336,10 @@
         <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3359,10 +3353,10 @@
         <v>478</v>
       </c>
       <c r="D3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3376,10 +3370,10 @@
         <v>479</v>
       </c>
       <c r="D4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3393,10 +3387,10 @@
         <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3410,10 +3404,10 @@
         <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3427,10 +3421,10 @@
         <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3444,10 +3438,10 @@
         <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E8" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3461,10 +3455,10 @@
         <v>484</v>
       </c>
       <c r="D9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3478,10 +3472,10 @@
         <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E10" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3495,10 +3489,10 @@
         <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3512,10 +3506,10 @@
         <v>487</v>
       </c>
       <c r="D12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3529,10 +3523,10 @@
         <v>488</v>
       </c>
       <c r="D13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3546,10 +3540,10 @@
         <v>489</v>
       </c>
       <c r="D14" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E14" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3563,10 +3557,10 @@
         <v>490</v>
       </c>
       <c r="D15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E15" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3580,10 +3574,10 @@
         <v>491</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E16" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3597,10 +3591,10 @@
         <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3614,10 +3608,10 @@
         <v>493</v>
       </c>
       <c r="D18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3631,10 +3625,10 @@
         <v>494</v>
       </c>
       <c r="D19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3648,10 +3642,10 @@
         <v>495</v>
       </c>
       <c r="D20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E20" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3665,10 +3659,10 @@
         <v>496</v>
       </c>
       <c r="D21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E21" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3682,10 +3676,10 @@
         <v>497</v>
       </c>
       <c r="D22" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E22" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3699,10 +3693,10 @@
         <v>498</v>
       </c>
       <c r="D23" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E23" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3716,10 +3710,10 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E24" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3733,10 +3727,10 @@
         <v>500</v>
       </c>
       <c r="D25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E25" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3750,10 +3744,10 @@
         <v>501</v>
       </c>
       <c r="D26" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3767,10 +3761,10 @@
         <v>502</v>
       </c>
       <c r="D27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E27" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3784,10 +3778,10 @@
         <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E28" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3801,10 +3795,10 @@
         <v>504</v>
       </c>
       <c r="D29" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E29" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3818,10 +3812,10 @@
         <v>505</v>
       </c>
       <c r="D30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E30" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3835,10 +3829,10 @@
         <v>506</v>
       </c>
       <c r="D31" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E31" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3852,10 +3846,10 @@
         <v>507</v>
       </c>
       <c r="D32" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E32" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3869,10 +3863,10 @@
         <v>508</v>
       </c>
       <c r="D33" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E33" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3886,10 +3880,10 @@
         <v>509</v>
       </c>
       <c r="D34" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3903,10 +3897,10 @@
         <v>510</v>
       </c>
       <c r="D35" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E35" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3920,10 +3914,10 @@
         <v>511</v>
       </c>
       <c r="D36" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3937,10 +3931,10 @@
         <v>512</v>
       </c>
       <c r="D37" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E37" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3954,10 +3948,10 @@
         <v>513</v>
       </c>
       <c r="D38" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E38" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3971,10 +3965,10 @@
         <v>514</v>
       </c>
       <c r="D39" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E39" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3988,10 +3982,10 @@
         <v>515</v>
       </c>
       <c r="D40" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E40" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4005,10 +3999,10 @@
         <v>516</v>
       </c>
       <c r="D41" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E41" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4022,10 +4016,10 @@
         <v>517</v>
       </c>
       <c r="D42" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E42" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4039,10 +4033,10 @@
         <v>518</v>
       </c>
       <c r="D43" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E43" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4056,10 +4050,10 @@
         <v>519</v>
       </c>
       <c r="D44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4073,10 +4067,10 @@
         <v>520</v>
       </c>
       <c r="D45" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E45" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4090,10 +4084,10 @@
         <v>521</v>
       </c>
       <c r="D46" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4107,10 +4101,10 @@
         <v>522</v>
       </c>
       <c r="D47" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E47" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4124,10 +4118,10 @@
         <v>523</v>
       </c>
       <c r="D48" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E48" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4141,10 +4135,10 @@
         <v>524</v>
       </c>
       <c r="D49" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E49" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4158,10 +4152,10 @@
         <v>525</v>
       </c>
       <c r="D50" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E50" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4175,10 +4169,10 @@
         <v>526</v>
       </c>
       <c r="D51" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E51" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4192,10 +4186,10 @@
         <v>527</v>
       </c>
       <c r="D52" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E52" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4209,10 +4203,10 @@
         <v>528</v>
       </c>
       <c r="D53" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E53" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4226,10 +4220,10 @@
         <v>529</v>
       </c>
       <c r="D54" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E54" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4243,10 +4237,10 @@
         <v>530</v>
       </c>
       <c r="D55" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E55" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4260,10 +4254,10 @@
         <v>531</v>
       </c>
       <c r="D56" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E56" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4277,10 +4271,10 @@
         <v>532</v>
       </c>
       <c r="D57" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E57" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4294,10 +4288,10 @@
         <v>533</v>
       </c>
       <c r="D58" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E58" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4311,10 +4305,10 @@
         <v>534</v>
       </c>
       <c r="D59" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E59" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4328,10 +4322,10 @@
         <v>535</v>
       </c>
       <c r="D60" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E60" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4345,10 +4339,10 @@
         <v>536</v>
       </c>
       <c r="D61" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E61" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4362,10 +4356,10 @@
         <v>537</v>
       </c>
       <c r="D62" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E62" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4379,10 +4373,10 @@
         <v>538</v>
       </c>
       <c r="D63" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E63" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4396,10 +4390,10 @@
         <v>539</v>
       </c>
       <c r="D64" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E64" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4413,10 +4407,10 @@
         <v>540</v>
       </c>
       <c r="D65" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E65" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4430,10 +4424,10 @@
         <v>541</v>
       </c>
       <c r="D66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E66" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4447,10 +4441,10 @@
         <v>542</v>
       </c>
       <c r="D67" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E67" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4464,10 +4458,10 @@
         <v>543</v>
       </c>
       <c r="D68" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E68" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4481,10 +4475,10 @@
         <v>544</v>
       </c>
       <c r="D69" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E69" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4498,10 +4492,10 @@
         <v>545</v>
       </c>
       <c r="D70" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E70" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4515,10 +4509,10 @@
         <v>546</v>
       </c>
       <c r="D71" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E71" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4532,10 +4526,10 @@
         <v>547</v>
       </c>
       <c r="D72" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4549,10 +4543,10 @@
         <v>548</v>
       </c>
       <c r="D73" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E73" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4566,10 +4560,10 @@
         <v>549</v>
       </c>
       <c r="D74" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E74" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4583,10 +4577,10 @@
         <v>550</v>
       </c>
       <c r="D75" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E75" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4600,10 +4594,10 @@
         <v>551</v>
       </c>
       <c r="D76" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E76" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4617,10 +4611,10 @@
         <v>552</v>
       </c>
       <c r="D77" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E77" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4634,10 +4628,10 @@
         <v>553</v>
       </c>
       <c r="D78" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E78" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4651,10 +4645,10 @@
         <v>554</v>
       </c>
       <c r="D79" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E79" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4668,10 +4662,10 @@
         <v>555</v>
       </c>
       <c r="D80" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E80" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4685,10 +4679,10 @@
         <v>556</v>
       </c>
       <c r="D81" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E81" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4702,10 +4696,10 @@
         <v>557</v>
       </c>
       <c r="D82" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E82" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4719,10 +4713,10 @@
         <v>558</v>
       </c>
       <c r="D83" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E83" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4736,10 +4730,10 @@
         <v>559</v>
       </c>
       <c r="D84" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E84" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4753,10 +4747,10 @@
         <v>560</v>
       </c>
       <c r="D85" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E85" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4770,10 +4764,10 @@
         <v>561</v>
       </c>
       <c r="D86" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E86" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4787,10 +4781,10 @@
         <v>562</v>
       </c>
       <c r="D87" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E87" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4804,10 +4798,10 @@
         <v>563</v>
       </c>
       <c r="D88" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E88" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4821,10 +4815,10 @@
         <v>564</v>
       </c>
       <c r="D89" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E89" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4838,10 +4832,10 @@
         <v>565</v>
       </c>
       <c r="D90" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E90" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4855,10 +4849,10 @@
         <v>566</v>
       </c>
       <c r="D91" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E91" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4872,10 +4866,10 @@
         <v>567</v>
       </c>
       <c r="D92" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E92" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4889,10 +4883,10 @@
         <v>568</v>
       </c>
       <c r="D93" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E93" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4906,10 +4900,10 @@
         <v>569</v>
       </c>
       <c r="D94" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E94" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4923,10 +4917,10 @@
         <v>570</v>
       </c>
       <c r="D95" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E95" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4940,10 +4934,10 @@
         <v>571</v>
       </c>
       <c r="D96" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E96" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4957,10 +4951,10 @@
         <v>572</v>
       </c>
       <c r="D97" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E97" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4974,10 +4968,10 @@
         <v>573</v>
       </c>
       <c r="D98" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E98" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4991,10 +4985,10 @@
         <v>574</v>
       </c>
       <c r="D99" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E99" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5008,10 +5002,10 @@
         <v>575</v>
       </c>
       <c r="D100" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E100" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5025,10 +5019,10 @@
         <v>576</v>
       </c>
       <c r="D101" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E101" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5042,10 +5036,10 @@
         <v>577</v>
       </c>
       <c r="D102" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E102" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5059,10 +5053,10 @@
         <v>578</v>
       </c>
       <c r="D103" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E103" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5076,10 +5070,10 @@
         <v>579</v>
       </c>
       <c r="D104" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E104" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5093,10 +5087,10 @@
         <v>580</v>
       </c>
       <c r="D105" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E105" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5110,10 +5104,10 @@
         <v>581</v>
       </c>
       <c r="D106" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E106" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5127,10 +5121,10 @@
         <v>582</v>
       </c>
       <c r="D107" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E107" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5144,10 +5138,10 @@
         <v>583</v>
       </c>
       <c r="D108" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E108" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5161,10 +5155,10 @@
         <v>584</v>
       </c>
       <c r="D109" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E109" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5178,10 +5172,10 @@
         <v>585</v>
       </c>
       <c r="D110" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E110" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5195,10 +5189,10 @@
         <v>586</v>
       </c>
       <c r="D111" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E111" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5212,10 +5206,10 @@
         <v>587</v>
       </c>
       <c r="D112" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E112" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5229,10 +5223,10 @@
         <v>588</v>
       </c>
       <c r="D113" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E113" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5246,10 +5240,10 @@
         <v>589</v>
       </c>
       <c r="D114" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E114" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5263,10 +5257,10 @@
         <v>590</v>
       </c>
       <c r="D115" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E115" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5280,10 +5274,10 @@
         <v>591</v>
       </c>
       <c r="D116" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E116" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5297,10 +5291,10 @@
         <v>592</v>
       </c>
       <c r="D117" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E117" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5314,10 +5308,10 @@
         <v>593</v>
       </c>
       <c r="D118" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E118" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5331,10 +5325,10 @@
         <v>594</v>
       </c>
       <c r="D119" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E119" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5348,10 +5342,10 @@
         <v>595</v>
       </c>
       <c r="D120" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E120" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5365,10 +5359,10 @@
         <v>596</v>
       </c>
       <c r="D121" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E121" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5382,10 +5376,10 @@
         <v>597</v>
       </c>
       <c r="D122" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E122" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5399,10 +5393,10 @@
         <v>598</v>
       </c>
       <c r="D123" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E123" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5416,10 +5410,10 @@
         <v>599</v>
       </c>
       <c r="D124" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5433,10 +5427,10 @@
         <v>600</v>
       </c>
       <c r="D125" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E125" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5450,10 +5444,10 @@
         <v>601</v>
       </c>
       <c r="D126" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E126" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5467,10 +5461,10 @@
         <v>602</v>
       </c>
       <c r="D127" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E127" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5484,10 +5478,10 @@
         <v>603</v>
       </c>
       <c r="D128" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E128" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5501,10 +5495,10 @@
         <v>604</v>
       </c>
       <c r="D129" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E129" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5518,10 +5512,10 @@
         <v>605</v>
       </c>
       <c r="D130" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E130" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5535,10 +5529,10 @@
         <v>606</v>
       </c>
       <c r="D131" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E131" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5552,10 +5546,10 @@
         <v>607</v>
       </c>
       <c r="D132" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E132" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5569,10 +5563,10 @@
         <v>608</v>
       </c>
       <c r="D133" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E133" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5586,10 +5580,10 @@
         <v>609</v>
       </c>
       <c r="D134" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E134" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5603,10 +5597,10 @@
         <v>610</v>
       </c>
       <c r="D135" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E135" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5620,10 +5614,10 @@
         <v>611</v>
       </c>
       <c r="D136" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E136" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5637,10 +5631,10 @@
         <v>612</v>
       </c>
       <c r="D137" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E137" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5654,10 +5648,10 @@
         <v>613</v>
       </c>
       <c r="D138" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E138" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5671,10 +5665,10 @@
         <v>614</v>
       </c>
       <c r="D139" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E139" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5688,10 +5682,10 @@
         <v>615</v>
       </c>
       <c r="D140" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E140" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5705,10 +5699,10 @@
         <v>616</v>
       </c>
       <c r="D141" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E141" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5722,10 +5716,10 @@
         <v>617</v>
       </c>
       <c r="D142" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E142" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5739,10 +5733,10 @@
         <v>618</v>
       </c>
       <c r="D143" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E143" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5756,10 +5750,10 @@
         <v>619</v>
       </c>
       <c r="D144" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E144" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5773,10 +5767,10 @@
         <v>620</v>
       </c>
       <c r="D145" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E145" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5790,10 +5784,10 @@
         <v>621</v>
       </c>
       <c r="D146" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E146" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5807,10 +5801,10 @@
         <v>622</v>
       </c>
       <c r="D147" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E147" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5824,10 +5818,10 @@
         <v>623</v>
       </c>
       <c r="D148" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E148" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5841,10 +5835,10 @@
         <v>624</v>
       </c>
       <c r="D149" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E149" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5858,10 +5852,10 @@
         <v>625</v>
       </c>
       <c r="D150" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E150" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5875,10 +5869,10 @@
         <v>626</v>
       </c>
       <c r="D151" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E151" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5892,10 +5886,10 @@
         <v>627</v>
       </c>
       <c r="D152" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E152" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5909,10 +5903,10 @@
         <v>628</v>
       </c>
       <c r="D153" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E153" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5926,10 +5920,10 @@
         <v>629</v>
       </c>
       <c r="D154" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E154" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5943,10 +5937,10 @@
         <v>630</v>
       </c>
       <c r="D155" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E155" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5960,10 +5954,10 @@
         <v>631</v>
       </c>
       <c r="D156" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E156" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5977,10 +5971,10 @@
         <v>632</v>
       </c>
       <c r="D157" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E157" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5994,10 +5988,10 @@
         <v>633</v>
       </c>
       <c r="D158" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E158" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6011,10 +6005,10 @@
         <v>634</v>
       </c>
       <c r="D159" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E159" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6028,10 +6022,10 @@
         <v>635</v>
       </c>
       <c r="D160" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E160" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6045,10 +6039,10 @@
         <v>636</v>
       </c>
       <c r="D161" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E161" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6062,10 +6056,10 @@
         <v>637</v>
       </c>
       <c r="D162" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E162" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6079,10 +6073,10 @@
         <v>638</v>
       </c>
       <c r="D163" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E163" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6096,10 +6090,10 @@
         <v>639</v>
       </c>
       <c r="D164" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E164" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6113,10 +6107,10 @@
         <v>640</v>
       </c>
       <c r="D165" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E165" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6130,10 +6124,10 @@
         <v>641</v>
       </c>
       <c r="D166" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E166" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6147,10 +6141,10 @@
         <v>642</v>
       </c>
       <c r="D167" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E167" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6164,10 +6158,10 @@
         <v>643</v>
       </c>
       <c r="D168" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E168" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6181,10 +6175,10 @@
         <v>644</v>
       </c>
       <c r="D169" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E169" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6198,10 +6192,10 @@
         <v>645</v>
       </c>
       <c r="D170" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E170" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6215,10 +6209,10 @@
         <v>646</v>
       </c>
       <c r="D171" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E171" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6232,10 +6226,10 @@
         <v>647</v>
       </c>
       <c r="D172" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E172" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6249,10 +6243,10 @@
         <v>648</v>
       </c>
       <c r="D173" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E173" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6266,10 +6260,10 @@
         <v>649</v>
       </c>
       <c r="D174" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E174" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6283,10 +6277,10 @@
         <v>650</v>
       </c>
       <c r="D175" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E175" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6300,10 +6294,10 @@
         <v>651</v>
       </c>
       <c r="D176" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E176" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6317,10 +6311,10 @@
         <v>652</v>
       </c>
       <c r="D177" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E177" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6334,10 +6328,10 @@
         <v>653</v>
       </c>
       <c r="D178" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E178" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6351,10 +6345,10 @@
         <v>654</v>
       </c>
       <c r="D179" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E179" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6368,10 +6362,10 @@
         <v>655</v>
       </c>
       <c r="D180" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E180" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6385,10 +6379,10 @@
         <v>656</v>
       </c>
       <c r="D181" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E181" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6402,10 +6396,10 @@
         <v>657</v>
       </c>
       <c r="D182" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E182" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6419,10 +6413,10 @@
         <v>658</v>
       </c>
       <c r="D183" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E183" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6436,10 +6430,10 @@
         <v>659</v>
       </c>
       <c r="D184" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E184" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6453,10 +6447,10 @@
         <v>660</v>
       </c>
       <c r="D185" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E185" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6470,10 +6464,10 @@
         <v>661</v>
       </c>
       <c r="D186" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E186" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6487,10 +6481,10 @@
         <v>662</v>
       </c>
       <c r="D187" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E187" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6504,10 +6498,10 @@
         <v>663</v>
       </c>
       <c r="D188" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E188" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6521,10 +6515,10 @@
         <v>664</v>
       </c>
       <c r="D189" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E189" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6538,10 +6532,10 @@
         <v>665</v>
       </c>
       <c r="D190" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E190" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6555,10 +6549,10 @@
         <v>666</v>
       </c>
       <c r="D191" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E191" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6572,10 +6566,10 @@
         <v>667</v>
       </c>
       <c r="D192" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E192" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6589,10 +6583,10 @@
         <v>668</v>
       </c>
       <c r="D193" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E193" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6606,10 +6600,10 @@
         <v>669</v>
       </c>
       <c r="D194" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E194" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6623,10 +6617,10 @@
         <v>670</v>
       </c>
       <c r="D195" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E195" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6640,10 +6634,10 @@
         <v>671</v>
       </c>
       <c r="D196" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E196" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6657,10 +6651,10 @@
         <v>672</v>
       </c>
       <c r="D197" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E197" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6674,10 +6668,10 @@
         <v>673</v>
       </c>
       <c r="D198" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E198" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6691,10 +6685,10 @@
         <v>674</v>
       </c>
       <c r="D199" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E199" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6708,10 +6702,10 @@
         <v>675</v>
       </c>
       <c r="D200" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E200" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6725,10 +6719,10 @@
         <v>676</v>
       </c>
       <c r="D201" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E201" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6742,10 +6736,10 @@
         <v>677</v>
       </c>
       <c r="D202" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E202" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6759,10 +6753,10 @@
         <v>678</v>
       </c>
       <c r="D203" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E203" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6776,10 +6770,10 @@
         <v>679</v>
       </c>
       <c r="D204" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E204" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6793,10 +6787,10 @@
         <v>680</v>
       </c>
       <c r="D205" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E205" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6810,10 +6804,10 @@
         <v>681</v>
       </c>
       <c r="D206" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E206" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6827,10 +6821,10 @@
         <v>682</v>
       </c>
       <c r="D207" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E207" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6844,10 +6838,10 @@
         <v>683</v>
       </c>
       <c r="D208" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E208" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6861,10 +6855,10 @@
         <v>684</v>
       </c>
       <c r="D209" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E209" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6878,10 +6872,10 @@
         <v>685</v>
       </c>
       <c r="D210" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E210" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6892,13 +6886,13 @@
         <v>466</v>
       </c>
       <c r="C211" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D211" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E211" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6909,13 +6903,13 @@
         <v>466</v>
       </c>
       <c r="C212" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D212" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E212" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6926,13 +6920,13 @@
         <v>465</v>
       </c>
       <c r="C213" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D213" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E213" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6943,13 +6937,13 @@
         <v>465</v>
       </c>
       <c r="C214" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D214" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E214" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6960,13 +6954,13 @@
         <v>466</v>
       </c>
       <c r="C215" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D215" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E215" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6977,13 +6971,13 @@
         <v>466</v>
       </c>
       <c r="C216" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D216" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E216" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6994,13 +6988,13 @@
         <v>466</v>
       </c>
       <c r="C217" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D217" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E217" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7011,13 +7005,13 @@
         <v>466</v>
       </c>
       <c r="C218" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D218" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E218" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7028,13 +7022,13 @@
         <v>466</v>
       </c>
       <c r="C219" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D219" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E219" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7045,13 +7039,13 @@
         <v>466</v>
       </c>
       <c r="C220" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D220" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E220" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7062,13 +7056,13 @@
         <v>466</v>
       </c>
       <c r="C221" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D221" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E221" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7079,13 +7073,13 @@
         <v>466</v>
       </c>
       <c r="C222" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D222" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E222" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7096,13 +7090,13 @@
         <v>466</v>
       </c>
       <c r="C223" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D223" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E223" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7113,13 +7107,13 @@
         <v>466</v>
       </c>
       <c r="C224" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D224" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E224" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7130,13 +7124,13 @@
         <v>466</v>
       </c>
       <c r="C225" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D225" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E225" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7147,13 +7141,13 @@
         <v>466</v>
       </c>
       <c r="C226" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D226" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E226" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7164,13 +7158,13 @@
         <v>466</v>
       </c>
       <c r="C227" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D227" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E227" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7181,13 +7175,13 @@
         <v>466</v>
       </c>
       <c r="C228" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D228" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E228" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7198,13 +7192,13 @@
         <v>466</v>
       </c>
       <c r="C229" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D229" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E229" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7215,13 +7209,13 @@
         <v>466</v>
       </c>
       <c r="C230" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D230" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E230" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7232,13 +7226,13 @@
         <v>466</v>
       </c>
       <c r="C231" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D231" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E231" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7249,13 +7243,13 @@
         <v>467</v>
       </c>
       <c r="C232" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D232" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E232" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7266,13 +7260,13 @@
         <v>466</v>
       </c>
       <c r="C233" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D233" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E233" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7283,13 +7277,13 @@
         <v>468</v>
       </c>
       <c r="C234" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D234" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E234" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7300,13 +7294,13 @@
         <v>468</v>
       </c>
       <c r="C235" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D235" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E235" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7317,13 +7311,13 @@
         <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D236" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E236" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7334,13 +7328,13 @@
         <v>467</v>
       </c>
       <c r="C237" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D237" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E237" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7351,13 +7345,13 @@
         <v>467</v>
       </c>
       <c r="C238" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D238" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E238" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7368,13 +7362,13 @@
         <v>466</v>
       </c>
       <c r="C239" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D239" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E239" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7385,13 +7379,13 @@
         <v>468</v>
       </c>
       <c r="C240" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D240" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E240" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7402,13 +7396,13 @@
         <v>468</v>
       </c>
       <c r="C241" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D241" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E241" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7419,13 +7413,13 @@
         <v>468</v>
       </c>
       <c r="C242" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D242" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E242" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7436,13 +7430,13 @@
         <v>468</v>
       </c>
       <c r="C243" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D243" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E243" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7453,13 +7447,13 @@
         <v>468</v>
       </c>
       <c r="C244" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D244" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E244" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7470,13 +7464,13 @@
         <v>468</v>
       </c>
       <c r="C245" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D245" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E245" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7487,13 +7481,13 @@
         <v>468</v>
       </c>
       <c r="C246" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D246" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E246" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7504,13 +7498,13 @@
         <v>468</v>
       </c>
       <c r="C247" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D247" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E247" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7521,13 +7515,13 @@
         <v>468</v>
       </c>
       <c r="C248" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D248" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E248" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7538,13 +7532,13 @@
         <v>465</v>
       </c>
       <c r="C249" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D249" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E249" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7555,13 +7549,13 @@
         <v>465</v>
       </c>
       <c r="C250" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D250" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E250" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7572,13 +7566,13 @@
         <v>465</v>
       </c>
       <c r="C251" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D251" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E251" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7589,13 +7583,13 @@
         <v>465</v>
       </c>
       <c r="C252" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D252" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E252" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7606,13 +7600,13 @@
         <v>465</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D253" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E253" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7623,13 +7617,13 @@
         <v>465</v>
       </c>
       <c r="C254" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D254" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E254" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7640,13 +7634,13 @@
         <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D255" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E255" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7657,13 +7651,13 @@
         <v>465</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D256" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E256" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7674,13 +7668,13 @@
         <v>465</v>
       </c>
       <c r="C257" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D257" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E257" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7691,13 +7685,13 @@
         <v>465</v>
       </c>
       <c r="C258" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D258" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E258" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7708,13 +7702,13 @@
         <v>466</v>
       </c>
       <c r="C259" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D259" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E259" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7725,13 +7719,13 @@
         <v>467</v>
       </c>
       <c r="C260" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D260" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E260" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7742,13 +7736,13 @@
         <v>466</v>
       </c>
       <c r="C261" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D261" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E261" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7759,13 +7753,13 @@
         <v>466</v>
       </c>
       <c r="C262" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D262" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E262" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7776,13 +7770,13 @@
         <v>468</v>
       </c>
       <c r="C263" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D263" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E263" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7793,13 +7787,13 @@
         <v>468</v>
       </c>
       <c r="C264" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D264" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E264" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7810,13 +7804,13 @@
         <v>468</v>
       </c>
       <c r="C265" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D265" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E265" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7827,13 +7821,13 @@
         <v>468</v>
       </c>
       <c r="C266" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D266" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E266" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7844,13 +7838,13 @@
         <v>468</v>
       </c>
       <c r="C267" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D267" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E267" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7861,13 +7855,13 @@
         <v>468</v>
       </c>
       <c r="C268" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D268" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E268" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7878,13 +7872,13 @@
         <v>465</v>
       </c>
       <c r="C269" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D269" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E269" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7895,13 +7889,13 @@
         <v>465</v>
       </c>
       <c r="C270" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D270" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E270" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7912,13 +7906,13 @@
         <v>465</v>
       </c>
       <c r="C271" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D271" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E271" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7929,13 +7923,13 @@
         <v>465</v>
       </c>
       <c r="C272" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D272" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E272" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7946,13 +7940,13 @@
         <v>465</v>
       </c>
       <c r="C273" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D273" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E273" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7963,13 +7957,13 @@
         <v>465</v>
       </c>
       <c r="C274" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D274" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E274" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7980,13 +7974,13 @@
         <v>469</v>
       </c>
       <c r="C275" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D275" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E275" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7997,13 +7991,13 @@
         <v>469</v>
       </c>
       <c r="C276" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D276" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E276" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8014,13 +8008,13 @@
         <v>469</v>
       </c>
       <c r="C277" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D277" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E277" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8031,13 +8025,13 @@
         <v>469</v>
       </c>
       <c r="C278" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D278" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E278" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8048,13 +8042,13 @@
         <v>469</v>
       </c>
       <c r="C279" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D279" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E279" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8065,13 +8059,13 @@
         <v>469</v>
       </c>
       <c r="C280" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D280" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E280" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8082,13 +8076,13 @@
         <v>469</v>
       </c>
       <c r="C281" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D281" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E281" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8099,13 +8093,13 @@
         <v>469</v>
       </c>
       <c r="C282" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D282" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E282" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8116,13 +8110,13 @@
         <v>469</v>
       </c>
       <c r="C283" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D283" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E283" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8133,13 +8127,13 @@
         <v>469</v>
       </c>
       <c r="C284" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D284" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E284" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8150,13 +8144,13 @@
         <v>469</v>
       </c>
       <c r="C285" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D285" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E285" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8167,13 +8161,13 @@
         <v>466</v>
       </c>
       <c r="C286" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D286" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E286" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8184,13 +8178,13 @@
         <v>466</v>
       </c>
       <c r="C287" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D287" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E287" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8201,13 +8195,13 @@
         <v>470</v>
       </c>
       <c r="C288" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D288" t="s">
         <v>470</v>
       </c>
       <c r="E288" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8218,13 +8212,13 @@
         <v>470</v>
       </c>
       <c r="C289" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D289" t="s">
         <v>470</v>
       </c>
       <c r="E289" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8235,13 +8229,13 @@
         <v>470</v>
       </c>
       <c r="C290" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D290" t="s">
         <v>470</v>
       </c>
       <c r="E290" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8252,13 +8246,13 @@
         <v>470</v>
       </c>
       <c r="C291" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D291" t="s">
         <v>470</v>
       </c>
       <c r="E291" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8269,13 +8263,13 @@
         <v>470</v>
       </c>
       <c r="C292" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D292" t="s">
         <v>470</v>
       </c>
       <c r="E292" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8286,13 +8280,13 @@
         <v>470</v>
       </c>
       <c r="C293" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D293" t="s">
         <v>470</v>
       </c>
       <c r="E293" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8303,13 +8297,13 @@
         <v>471</v>
       </c>
       <c r="C294" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D294" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E294" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8320,13 +8314,13 @@
         <v>471</v>
       </c>
       <c r="C295" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D295" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E295" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8337,13 +8331,13 @@
         <v>471</v>
       </c>
       <c r="C296" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D296" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E296" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8354,13 +8348,13 @@
         <v>471</v>
       </c>
       <c r="C297" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D297" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E297" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8371,13 +8365,13 @@
         <v>471</v>
       </c>
       <c r="C298" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D298" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E298" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8388,13 +8382,13 @@
         <v>466</v>
       </c>
       <c r="C299" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D299" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E299" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8405,13 +8399,13 @@
         <v>471</v>
       </c>
       <c r="C300" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D300" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E300" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8422,13 +8416,13 @@
         <v>471</v>
       </c>
       <c r="C301" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D301" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E301" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8439,13 +8433,13 @@
         <v>469</v>
       </c>
       <c r="C302" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D302" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E302" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8456,13 +8450,13 @@
         <v>469</v>
       </c>
       <c r="C303" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D303" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E303" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8473,13 +8467,13 @@
         <v>469</v>
       </c>
       <c r="C304" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D304" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E304" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8490,13 +8484,13 @@
         <v>469</v>
       </c>
       <c r="C305" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D305" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E305" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8507,13 +8501,13 @@
         <v>469</v>
       </c>
       <c r="C306" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D306" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E306" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8524,13 +8518,13 @@
         <v>469</v>
       </c>
       <c r="C307" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D307" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E307" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8541,13 +8535,13 @@
         <v>469</v>
       </c>
       <c r="C308" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D308" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E308" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8558,13 +8552,13 @@
         <v>469</v>
       </c>
       <c r="C309" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D309" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E309" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8575,13 +8569,13 @@
         <v>469</v>
       </c>
       <c r="C310" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D310" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E310" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8592,13 +8586,13 @@
         <v>469</v>
       </c>
       <c r="C311" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D311" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E311" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8609,13 +8603,13 @@
         <v>469</v>
       </c>
       <c r="C312" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D312" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E312" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8626,13 +8620,13 @@
         <v>469</v>
       </c>
       <c r="C313" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D313" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E313" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8643,13 +8637,13 @@
         <v>466</v>
       </c>
       <c r="C314" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D314" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E314" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8660,13 +8654,13 @@
         <v>472</v>
       </c>
       <c r="C315" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D315" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E315" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8677,13 +8671,13 @@
         <v>472</v>
       </c>
       <c r="C316" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D316" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E316" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8694,13 +8688,13 @@
         <v>472</v>
       </c>
       <c r="C317" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D317" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E317" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8711,13 +8705,13 @@
         <v>472</v>
       </c>
       <c r="C318" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D318" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E318" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8728,13 +8722,13 @@
         <v>472</v>
       </c>
       <c r="C319" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D319" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E319" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8745,13 +8739,13 @@
         <v>472</v>
       </c>
       <c r="C320" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D320" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E320" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8762,13 +8756,13 @@
         <v>472</v>
       </c>
       <c r="C321" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D321" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E321" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8779,13 +8773,13 @@
         <v>472</v>
       </c>
       <c r="C322" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D322" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E322" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8796,13 +8790,13 @@
         <v>472</v>
       </c>
       <c r="C323" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D323" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E323" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8813,13 +8807,13 @@
         <v>472</v>
       </c>
       <c r="C324" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D324" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E324" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8827,16 +8821,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C325" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D325" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E325" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8847,13 +8841,13 @@
         <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D326" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E326" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8864,13 +8858,13 @@
         <v>465</v>
       </c>
       <c r="C327" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D327" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E327" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8881,13 +8875,13 @@
         <v>465</v>
       </c>
       <c r="C328" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D328" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E328" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8898,13 +8892,13 @@
         <v>465</v>
       </c>
       <c r="C329" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D329" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E329" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8915,13 +8909,13 @@
         <v>465</v>
       </c>
       <c r="C330" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D330" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E330" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8932,13 +8926,13 @@
         <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D331" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E331" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8949,13 +8943,13 @@
         <v>472</v>
       </c>
       <c r="C332" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D332" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E332" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8966,13 +8960,13 @@
         <v>472</v>
       </c>
       <c r="C333" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D333" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E333" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8983,13 +8977,13 @@
         <v>472</v>
       </c>
       <c r="C334" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D334" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E334" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9000,13 +8994,13 @@
         <v>472</v>
       </c>
       <c r="C335" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D335" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E335" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9017,13 +9011,13 @@
         <v>472</v>
       </c>
       <c r="C336" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D336" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E336" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9034,13 +9028,13 @@
         <v>465</v>
       </c>
       <c r="C337" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D337" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E337" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9051,13 +9045,13 @@
         <v>465</v>
       </c>
       <c r="C338" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D338" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E338" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9068,13 +9062,13 @@
         <v>465</v>
       </c>
       <c r="C339" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D339" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E339" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9085,13 +9079,13 @@
         <v>465</v>
       </c>
       <c r="C340" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D340" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E340" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9102,13 +9096,13 @@
         <v>465</v>
       </c>
       <c r="C341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D341" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E341" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9119,13 +9113,13 @@
         <v>465</v>
       </c>
       <c r="C342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D342" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E342" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9136,13 +9130,13 @@
         <v>465</v>
       </c>
       <c r="C343" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D343" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E343" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9153,13 +9147,13 @@
         <v>465</v>
       </c>
       <c r="C344" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D344" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E344" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9170,13 +9164,13 @@
         <v>465</v>
       </c>
       <c r="C345" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D345" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E345" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9187,13 +9181,13 @@
         <v>466</v>
       </c>
       <c r="C346" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D346" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E346" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9204,13 +9198,13 @@
         <v>470</v>
       </c>
       <c r="C347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D347" t="s">
         <v>470</v>
       </c>
       <c r="E347" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9221,13 +9215,13 @@
         <v>470</v>
       </c>
       <c r="C348" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D348" t="s">
         <v>470</v>
       </c>
       <c r="E348" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9238,13 +9232,13 @@
         <v>470</v>
       </c>
       <c r="C349" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D349" t="s">
         <v>470</v>
       </c>
       <c r="E349" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9255,13 +9249,13 @@
         <v>470</v>
       </c>
       <c r="C350" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D350" t="s">
         <v>470</v>
       </c>
       <c r="E350" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9272,13 +9266,13 @@
         <v>470</v>
       </c>
       <c r="C351" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D351" t="s">
         <v>470</v>
       </c>
       <c r="E351" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9289,13 +9283,13 @@
         <v>470</v>
       </c>
       <c r="C352" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D352" t="s">
         <v>470</v>
       </c>
       <c r="E352" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9306,13 +9300,13 @@
         <v>470</v>
       </c>
       <c r="C353" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D353" t="s">
         <v>470</v>
       </c>
       <c r="E353" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9323,13 +9317,13 @@
         <v>470</v>
       </c>
       <c r="C354" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D354" t="s">
         <v>470</v>
       </c>
       <c r="E354" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9340,13 +9334,13 @@
         <v>470</v>
       </c>
       <c r="C355" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D355" t="s">
         <v>470</v>
       </c>
       <c r="E355" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9357,13 +9351,13 @@
         <v>470</v>
       </c>
       <c r="C356" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D356" t="s">
         <v>470</v>
       </c>
       <c r="E356" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9374,13 +9368,13 @@
         <v>465</v>
       </c>
       <c r="C357" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D357" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E357" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9391,13 +9385,13 @@
         <v>465</v>
       </c>
       <c r="C358" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D358" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E358" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9408,13 +9402,13 @@
         <v>465</v>
       </c>
       <c r="C359" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D359" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E359" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9425,13 +9419,13 @@
         <v>465</v>
       </c>
       <c r="C360" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D360" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E360" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9442,13 +9436,13 @@
         <v>472</v>
       </c>
       <c r="C361" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D361" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E361" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9459,13 +9453,13 @@
         <v>472</v>
       </c>
       <c r="C362" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D362" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E362" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9476,13 +9470,13 @@
         <v>472</v>
       </c>
       <c r="C363" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D363" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E363" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9493,13 +9487,13 @@
         <v>472</v>
       </c>
       <c r="C364" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D364" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E364" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9510,13 +9504,13 @@
         <v>465</v>
       </c>
       <c r="C365" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D365" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E365" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9527,13 +9521,13 @@
         <v>465</v>
       </c>
       <c r="C366" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D366" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E366" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9544,13 +9538,13 @@
         <v>465</v>
       </c>
       <c r="C367" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D367" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E367" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9561,13 +9555,13 @@
         <v>465</v>
       </c>
       <c r="C368" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D368" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E368" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9578,13 +9572,13 @@
         <v>466</v>
       </c>
       <c r="C369" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D369" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E369" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9595,13 +9589,13 @@
         <v>473</v>
       </c>
       <c r="C370" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D370" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E370" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9612,13 +9606,13 @@
         <v>473</v>
       </c>
       <c r="C371" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D371" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E371" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9629,13 +9623,13 @@
         <v>473</v>
       </c>
       <c r="C372" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D372" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E372" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9646,13 +9640,13 @@
         <v>473</v>
       </c>
       <c r="C373" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D373" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E373" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9663,13 +9657,13 @@
         <v>473</v>
       </c>
       <c r="C374" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D374" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E374" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9680,13 +9674,13 @@
         <v>466</v>
       </c>
       <c r="C375" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D375" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E375" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9697,13 +9691,13 @@
         <v>473</v>
       </c>
       <c r="C376" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D376" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E376" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9714,13 +9708,13 @@
         <v>473</v>
       </c>
       <c r="C377" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D377" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E377" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9731,13 +9725,13 @@
         <v>473</v>
       </c>
       <c r="C378" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D378" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E378" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9748,13 +9742,13 @@
         <v>474</v>
       </c>
       <c r="C379" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D379" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E379" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9765,13 +9759,13 @@
         <v>474</v>
       </c>
       <c r="C380" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D380" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E380" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9782,13 +9776,13 @@
         <v>474</v>
       </c>
       <c r="C381" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D381" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E381" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9799,13 +9793,13 @@
         <v>474</v>
       </c>
       <c r="C382" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D382" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E382" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9816,13 +9810,13 @@
         <v>474</v>
       </c>
       <c r="C383" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D383" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E383" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9833,13 +9827,13 @@
         <v>474</v>
       </c>
       <c r="C384" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D384" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E384" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9850,13 +9844,13 @@
         <v>474</v>
       </c>
       <c r="C385" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D385" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E385" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9867,13 +9861,13 @@
         <v>474</v>
       </c>
       <c r="C386" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D386" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E386" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9884,13 +9878,13 @@
         <v>474</v>
       </c>
       <c r="C387" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D387" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E387" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9901,13 +9895,13 @@
         <v>474</v>
       </c>
       <c r="C388" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D388" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E388" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9918,13 +9912,13 @@
         <v>474</v>
       </c>
       <c r="C389" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D389" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E389" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9935,13 +9929,13 @@
         <v>474</v>
       </c>
       <c r="C390" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D390" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E390" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9952,13 +9946,13 @@
         <v>474</v>
       </c>
       <c r="C391" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D391" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E391" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9969,13 +9963,13 @@
         <v>474</v>
       </c>
       <c r="C392" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D392" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E392" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9986,13 +9980,13 @@
         <v>474</v>
       </c>
       <c r="C393" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D393" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E393" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10003,13 +9997,13 @@
         <v>474</v>
       </c>
       <c r="C394" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D394" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E394" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10023,10 +10017,10 @@
         <v>494</v>
       </c>
       <c r="D395" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E395" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10037,13 +10031,13 @@
         <v>474</v>
       </c>
       <c r="C396" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D396" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E396" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10054,13 +10048,13 @@
         <v>474</v>
       </c>
       <c r="C397" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D397" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E397" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10071,13 +10065,13 @@
         <v>474</v>
       </c>
       <c r="C398" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D398" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E398" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10088,13 +10082,13 @@
         <v>474</v>
       </c>
       <c r="C399" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D399" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E399" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10105,13 +10099,13 @@
         <v>474</v>
       </c>
       <c r="C400" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D400" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E400" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10122,13 +10116,13 @@
         <v>474</v>
       </c>
       <c r="C401" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D401" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E401" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10139,13 +10133,13 @@
         <v>474</v>
       </c>
       <c r="C402" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D402" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E402" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10156,13 +10150,13 @@
         <v>474</v>
       </c>
       <c r="C403" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D403" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E403" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10173,13 +10167,13 @@
         <v>474</v>
       </c>
       <c r="C404" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D404" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E404" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10190,13 +10184,13 @@
         <v>474</v>
       </c>
       <c r="C405" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D405" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E405" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10207,13 +10201,13 @@
         <v>474</v>
       </c>
       <c r="C406" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D406" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E406" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10224,13 +10218,13 @@
         <v>474</v>
       </c>
       <c r="C407" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D407" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E407" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10241,13 +10235,13 @@
         <v>465</v>
       </c>
       <c r="C408" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D408" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E408" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10258,13 +10252,13 @@
         <v>465</v>
       </c>
       <c r="C409" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D409" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E409" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10275,13 +10269,13 @@
         <v>475</v>
       </c>
       <c r="C410" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D410" t="s">
         <v>475</v>
       </c>
       <c r="E410" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10292,13 +10286,13 @@
         <v>475</v>
       </c>
       <c r="C411" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D411" t="s">
         <v>475</v>
       </c>
       <c r="E411" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10309,13 +10303,13 @@
         <v>475</v>
       </c>
       <c r="C412" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D412" t="s">
         <v>475</v>
       </c>
       <c r="E412" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10326,13 +10320,13 @@
         <v>475</v>
       </c>
       <c r="C413" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D413" t="s">
         <v>475</v>
       </c>
       <c r="E413" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10343,13 +10337,13 @@
         <v>475</v>
       </c>
       <c r="C414" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D414" t="s">
         <v>475</v>
       </c>
       <c r="E414" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10360,13 +10354,13 @@
         <v>475</v>
       </c>
       <c r="C415" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D415" t="s">
         <v>475</v>
       </c>
       <c r="E415" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10377,13 +10371,13 @@
         <v>475</v>
       </c>
       <c r="C416" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D416" t="s">
         <v>475</v>
       </c>
       <c r="E416" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10394,13 +10388,13 @@
         <v>475</v>
       </c>
       <c r="C417" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D417" t="s">
         <v>475</v>
       </c>
       <c r="E417" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10411,13 +10405,13 @@
         <v>475</v>
       </c>
       <c r="C418" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D418" t="s">
         <v>475</v>
       </c>
       <c r="E418" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10428,13 +10422,13 @@
         <v>475</v>
       </c>
       <c r="C419" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D419" t="s">
         <v>475</v>
       </c>
       <c r="E419" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10445,13 +10439,13 @@
         <v>475</v>
       </c>
       <c r="C420" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D420" t="s">
         <v>475</v>
       </c>
       <c r="E420" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10462,13 +10456,13 @@
         <v>474</v>
       </c>
       <c r="C421" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D421" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E421" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10479,13 +10473,13 @@
         <v>474</v>
       </c>
       <c r="C422" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D422" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E422" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10496,13 +10490,13 @@
         <v>476</v>
       </c>
       <c r="C423" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D423" t="s">
         <v>476</v>
       </c>
       <c r="E423" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10513,13 +10507,13 @@
         <v>476</v>
       </c>
       <c r="C424" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D424" t="s">
         <v>476</v>
       </c>
       <c r="E424" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10530,13 +10524,13 @@
         <v>476</v>
       </c>
       <c r="C425" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D425" t="s">
         <v>476</v>
       </c>
       <c r="E425" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10547,13 +10541,13 @@
         <v>476</v>
       </c>
       <c r="C426" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D426" t="s">
         <v>476</v>
       </c>
       <c r="E426" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10564,13 +10558,13 @@
         <v>476</v>
       </c>
       <c r="C427" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D427" t="s">
         <v>476</v>
       </c>
       <c r="E427" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10581,13 +10575,13 @@
         <v>476</v>
       </c>
       <c r="C428" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D428" t="s">
         <v>476</v>
       </c>
       <c r="E428" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10598,13 +10592,13 @@
         <v>476</v>
       </c>
       <c r="C429" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D429" t="s">
         <v>476</v>
       </c>
       <c r="E429" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10615,13 +10609,13 @@
         <v>476</v>
       </c>
       <c r="C430" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D430" t="s">
         <v>476</v>
       </c>
       <c r="E430" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10632,13 +10626,13 @@
         <v>476</v>
       </c>
       <c r="C431" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D431" t="s">
         <v>476</v>
       </c>
       <c r="E431" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10649,13 +10643,13 @@
         <v>474</v>
       </c>
       <c r="C432" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D432" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E432" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10666,13 +10660,13 @@
         <v>474</v>
       </c>
       <c r="C433" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D433" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E433" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10683,13 +10677,13 @@
         <v>474</v>
       </c>
       <c r="C434" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D434" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E434" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10700,13 +10694,13 @@
         <v>474</v>
       </c>
       <c r="C435" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D435" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E435" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10717,13 +10711,13 @@
         <v>474</v>
       </c>
       <c r="C436" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D436" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E436" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10734,13 +10728,13 @@
         <v>474</v>
       </c>
       <c r="C437" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D437" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E437" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10751,13 +10745,13 @@
         <v>474</v>
       </c>
       <c r="C438" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D438" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E438" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10768,13 +10762,13 @@
         <v>474</v>
       </c>
       <c r="C439" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D439" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E439" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10785,13 +10779,13 @@
         <v>474</v>
       </c>
       <c r="C440" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D440" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E440" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10802,13 +10796,13 @@
         <v>474</v>
       </c>
       <c r="C441" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D441" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E441" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10819,13 +10813,13 @@
         <v>474</v>
       </c>
       <c r="C442" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D442" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E442" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10836,13 +10830,13 @@
         <v>474</v>
       </c>
       <c r="C443" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D443" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E443" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10853,13 +10847,13 @@
         <v>470</v>
       </c>
       <c r="C444" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D444" t="s">
         <v>470</v>
       </c>
       <c r="E444" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10870,13 +10864,13 @@
         <v>470</v>
       </c>
       <c r="C445" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D445" t="s">
         <v>470</v>
       </c>
       <c r="E445" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10887,13 +10881,13 @@
         <v>470</v>
       </c>
       <c r="C446" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D446" t="s">
         <v>470</v>
       </c>
       <c r="E446" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10904,13 +10898,13 @@
         <v>470</v>
       </c>
       <c r="C447" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D447" t="s">
         <v>470</v>
       </c>
       <c r="E447" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10921,13 +10915,13 @@
         <v>470</v>
       </c>
       <c r="C448" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D448" t="s">
         <v>470</v>
       </c>
       <c r="E448" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10938,13 +10932,13 @@
         <v>470</v>
       </c>
       <c r="C449" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D449" t="s">
         <v>470</v>
       </c>
       <c r="E449" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10955,13 +10949,13 @@
         <v>470</v>
       </c>
       <c r="C450" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D450" t="s">
         <v>470</v>
       </c>
       <c r="E450" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10972,13 +10966,13 @@
         <v>470</v>
       </c>
       <c r="C451" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D451" t="s">
         <v>470</v>
       </c>
       <c r="E451" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10989,13 +10983,13 @@
         <v>470</v>
       </c>
       <c r="C452" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D452" t="s">
         <v>470</v>
       </c>
       <c r="E452" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11006,13 +11000,13 @@
         <v>474</v>
       </c>
       <c r="C453" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D453" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E453" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11023,13 +11017,13 @@
         <v>474</v>
       </c>
       <c r="C454" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D454" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E454" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11040,13 +11034,13 @@
         <v>474</v>
       </c>
       <c r="C455" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D455" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E455" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11057,13 +11051,13 @@
         <v>474</v>
       </c>
       <c r="C456" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D456" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E456" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11074,13 +11068,13 @@
         <v>474</v>
       </c>
       <c r="C457" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D457" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E457" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11091,13 +11085,13 @@
         <v>474</v>
       </c>
       <c r="C458" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D458" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E458" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11108,13 +11102,13 @@
         <v>474</v>
       </c>
       <c r="C459" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D459" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E459" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11125,13 +11119,13 @@
         <v>474</v>
       </c>
       <c r="C460" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D460" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E460" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11142,13 +11136,13 @@
         <v>474</v>
       </c>
       <c r="C461" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D461" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E461" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="975">
   <si>
     <t>Pāli1</t>
   </si>
@@ -1204,9 +1204,6 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā 1</t>
-  </si>
-  <si>
     <t>upāsikā</t>
   </si>
   <si>
@@ -1480,7 +1477,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>
@@ -2609,9 +2606,6 @@
   </si>
   <si>
     <t>tongue</t>
-  </si>
-  <si>
-    <t>hall</t>
   </si>
   <si>
     <t>female disciple; laywomen; female devotee</t>
@@ -3302,7 +3296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E461"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3330,16 +3324,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3347,16 +3341,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3364,16 +3358,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3381,16 +3375,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3398,16 +3392,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3415,16 +3409,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3432,16 +3426,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E8" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3449,16 +3443,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3466,16 +3460,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3483,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3500,16 +3494,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3517,16 +3511,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3534,16 +3528,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3551,16 +3545,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3568,16 +3562,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E16" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3585,16 +3579,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D17" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3602,16 +3596,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3619,16 +3613,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E19" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3636,16 +3630,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E20" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3653,16 +3647,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D21" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3670,16 +3664,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E22" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3687,16 +3681,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E23" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3704,16 +3698,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E24" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3721,16 +3715,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3738,16 +3732,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3755,16 +3749,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E27" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3772,16 +3766,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E28" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3789,16 +3783,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E29" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3806,16 +3800,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3823,16 +3817,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D31" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E31" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3840,16 +3834,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E32" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3857,16 +3851,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E33" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3874,16 +3868,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E34" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3891,16 +3885,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D35" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E35" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3908,16 +3902,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3925,16 +3919,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D37" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E37" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3942,16 +3936,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E38" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3959,16 +3953,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D39" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E39" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3976,16 +3970,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D40" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E40" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3993,16 +3987,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E41" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4010,16 +4004,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D42" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E42" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4027,16 +4021,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4044,16 +4038,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4061,16 +4055,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D45" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E45" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4078,16 +4072,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E46" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4095,16 +4089,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E47" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4112,16 +4106,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D48" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E48" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4129,16 +4123,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D49" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E49" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4146,16 +4140,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D50" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E50" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4163,16 +4157,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D51" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E51" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4180,16 +4174,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D52" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E52" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4197,16 +4191,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D53" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E53" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4214,16 +4208,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D54" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E54" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4231,16 +4225,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D55" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E55" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4248,16 +4242,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D56" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E56" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4265,16 +4259,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D57" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E57" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4282,16 +4276,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D58" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E58" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4299,16 +4293,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D59" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E59" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4316,16 +4310,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E60" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4333,16 +4327,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E61" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4350,16 +4344,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D62" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E62" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4367,16 +4361,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D63" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E63" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4384,16 +4378,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D64" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E64" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4401,16 +4395,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D65" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E65" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4418,16 +4412,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C66" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D66" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E66" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4435,16 +4429,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E67" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4452,16 +4446,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D68" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E68" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4469,16 +4463,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D69" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E69" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4486,16 +4480,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C70" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D70" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E70" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4503,16 +4497,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D71" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E71" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4520,16 +4514,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C72" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D72" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4537,16 +4531,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D73" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E73" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4554,16 +4548,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D74" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E74" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4571,16 +4565,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D75" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E75" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4588,16 +4582,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D76" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E76" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4605,16 +4599,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D77" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E77" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4622,16 +4616,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C78" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D78" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E78" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4639,16 +4633,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C79" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D79" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E79" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4656,16 +4650,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C80" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D80" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E80" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4673,16 +4667,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D81" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E81" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4690,16 +4684,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D82" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E82" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4707,16 +4701,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E83" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4724,16 +4718,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D84" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E84" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4741,16 +4735,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C85" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D85" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E85" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4758,16 +4752,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E86" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4775,16 +4769,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C87" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D87" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E87" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4792,16 +4786,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C88" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D88" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E88" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4809,16 +4803,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C89" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D89" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E89" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4826,16 +4820,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D90" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E90" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4843,16 +4837,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D91" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E91" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4860,16 +4854,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D92" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E92" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4877,16 +4871,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D93" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E93" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4894,16 +4888,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C94" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D94" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E94" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4911,16 +4905,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C95" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D95" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E95" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4928,16 +4922,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D96" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E96" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4945,16 +4939,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C97" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D97" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E97" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4962,16 +4956,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C98" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D98" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E98" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4979,16 +4973,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D99" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E99" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4996,16 +4990,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D100" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E100" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5013,16 +5007,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D101" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E101" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5030,16 +5024,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C102" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D102" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E102" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5047,16 +5041,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D103" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E103" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5064,16 +5058,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D104" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E104" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5081,16 +5075,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D105" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E105" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5098,16 +5092,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C106" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D106" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E106" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5115,16 +5109,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C107" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D107" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E107" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5132,16 +5126,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E108" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5149,16 +5143,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C109" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D109" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E109" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5166,16 +5160,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C110" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D110" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E110" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5183,16 +5177,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C111" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D111" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E111" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5200,16 +5194,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C112" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D112" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E112" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5217,16 +5211,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C113" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D113" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E113" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5234,16 +5228,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D114" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E114" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5251,16 +5245,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C115" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D115" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E115" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5268,16 +5262,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C116" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D116" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E116" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5285,16 +5279,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C117" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D117" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E117" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5302,16 +5296,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C118" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D118" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E118" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5319,16 +5313,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C119" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D119" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E119" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5336,16 +5330,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C120" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D120" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E120" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5353,16 +5347,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C121" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D121" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E121" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5370,16 +5364,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C122" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D122" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E122" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5387,16 +5381,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D123" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E123" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5404,16 +5398,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C124" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D124" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5421,16 +5415,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D125" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E125" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5438,16 +5432,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C126" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D126" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E126" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5455,16 +5449,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C127" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D127" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E127" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5472,16 +5466,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C128" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D128" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E128" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5489,16 +5483,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C129" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D129" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E129" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5506,16 +5500,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C130" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D130" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E130" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5523,16 +5517,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C131" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D131" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E131" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5540,16 +5534,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C132" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D132" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E132" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5557,16 +5551,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C133" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D133" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E133" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5574,16 +5568,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C134" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D134" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E134" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5591,16 +5585,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D135" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E135" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5608,16 +5602,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C136" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D136" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E136" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5625,16 +5619,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C137" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D137" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E137" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5642,16 +5636,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C138" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D138" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E138" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5659,16 +5653,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D139" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E139" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5676,16 +5670,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D140" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E140" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5693,16 +5687,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C141" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D141" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E141" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5710,16 +5704,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D142" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E142" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5727,16 +5721,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D143" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E143" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5744,16 +5738,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D144" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E144" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5761,16 +5755,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D145" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E145" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5778,16 +5772,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D146" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E146" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5795,16 +5789,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D147" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E147" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5812,16 +5806,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D148" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E148" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5829,16 +5823,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C149" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D149" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E149" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5846,16 +5840,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C150" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D150" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E150" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5863,16 +5857,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C151" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D151" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E151" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5880,16 +5874,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C152" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D152" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E152" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5897,16 +5891,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C153" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D153" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E153" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5914,16 +5908,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C154" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D154" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E154" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5931,16 +5925,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C155" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D155" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E155" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5948,16 +5942,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C156" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D156" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E156" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5965,16 +5959,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C157" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D157" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E157" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5982,16 +5976,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C158" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D158" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E158" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5999,16 +5993,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C159" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D159" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E159" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6016,16 +6010,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D160" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E160" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6033,16 +6027,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C161" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D161" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E161" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6050,16 +6044,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C162" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D162" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E162" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6067,16 +6061,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C163" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D163" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E163" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6084,16 +6078,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C164" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D164" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E164" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6101,16 +6095,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C165" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D165" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E165" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6118,16 +6112,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C166" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D166" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E166" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6135,16 +6129,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C167" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D167" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E167" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6152,16 +6146,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C168" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D168" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E168" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6169,16 +6163,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C169" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D169" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E169" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6186,16 +6180,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C170" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D170" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E170" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6203,16 +6197,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C171" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D171" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E171" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6220,16 +6214,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C172" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D172" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E172" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6237,16 +6231,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C173" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D173" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E173" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6254,16 +6248,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C174" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D174" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E174" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6271,16 +6265,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C175" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D175" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E175" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6288,16 +6282,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D176" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E176" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6305,16 +6299,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C177" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D177" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E177" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6322,16 +6316,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C178" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D178" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E178" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6339,16 +6333,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C179" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D179" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E179" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6356,16 +6350,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C180" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D180" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E180" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6373,16 +6367,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C181" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D181" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E181" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6390,16 +6384,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C182" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D182" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E182" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6407,16 +6401,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C183" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D183" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E183" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6424,16 +6418,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C184" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D184" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E184" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6441,16 +6435,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C185" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D185" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E185" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6458,16 +6452,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C186" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D186" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E186" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6475,16 +6469,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C187" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D187" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E187" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6492,16 +6486,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C188" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D188" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E188" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6509,16 +6503,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C189" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D189" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E189" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6526,16 +6520,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C190" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D190" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E190" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6543,16 +6537,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C191" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D191" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E191" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6560,16 +6554,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C192" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D192" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E192" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6577,16 +6571,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C193" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D193" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E193" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6594,16 +6588,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C194" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D194" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E194" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6611,16 +6605,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C195" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D195" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6628,16 +6622,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C196" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D196" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E196" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6645,16 +6639,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C197" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D197" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E197" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6662,16 +6656,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D198" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E198" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6679,16 +6673,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D199" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E199" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6696,16 +6690,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C200" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D200" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E200" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6713,16 +6707,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C201" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D201" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E201" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6730,16 +6724,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C202" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D202" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E202" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6747,16 +6741,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C203" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D203" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E203" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6764,16 +6758,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C204" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D204" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E204" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6781,16 +6775,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D205" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E205" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6798,16 +6792,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C206" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D206" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E206" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6815,16 +6809,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C207" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D207" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E207" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6832,16 +6826,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C208" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D208" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E208" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6849,16 +6843,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C209" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D209" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E209" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6866,16 +6860,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D210" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E210" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6883,16 +6877,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C211" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D211" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E211" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6900,16 +6894,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C212" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D212" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E212" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6917,16 +6911,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C213" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D213" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E213" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6934,16 +6928,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C214" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D214" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E214" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6951,16 +6945,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C215" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D215" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E215" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6968,16 +6962,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C216" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D216" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E216" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6985,16 +6979,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D217" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E217" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7002,16 +6996,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C218" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D218" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E218" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7019,16 +7013,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C219" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D219" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E219" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7036,16 +7030,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C220" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D220" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E220" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7053,16 +7047,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C221" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D221" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E221" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7070,16 +7064,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D222" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E222" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7087,16 +7081,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C223" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D223" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E223" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7104,16 +7098,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C224" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D224" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E224" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7121,16 +7115,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C225" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D225" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E225" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7138,16 +7132,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C226" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D226" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E226" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7155,16 +7149,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C227" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D227" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E227" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7172,16 +7166,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D228" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E228" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7189,16 +7183,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C229" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D229" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E229" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7206,16 +7200,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C230" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D230" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E230" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7223,16 +7217,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C231" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D231" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E231" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7240,16 +7234,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C232" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D232" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E232" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7257,16 +7251,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C233" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D233" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E233" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7274,16 +7268,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C234" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D234" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E234" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7291,16 +7285,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C235" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D235" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E235" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7308,16 +7302,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C236" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D236" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E236" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7325,16 +7319,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C237" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D237" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E237" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7342,16 +7336,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C238" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D238" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E238" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7359,16 +7353,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C239" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D239" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E239" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7376,16 +7370,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C240" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D240" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E240" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7393,16 +7387,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C241" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D241" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E241" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7410,16 +7404,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D242" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E242" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7427,16 +7421,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D243" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E243" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7444,16 +7438,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C244" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D244" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E244" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7461,16 +7455,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C245" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D245" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E245" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7478,16 +7472,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C246" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D246" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E246" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7495,16 +7489,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C247" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D247" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E247" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7512,16 +7506,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C248" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D248" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E248" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7529,16 +7523,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C249" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D249" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E249" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7546,16 +7540,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C250" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D250" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E250" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7563,16 +7557,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C251" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D251" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E251" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7580,16 +7574,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C252" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D252" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E252" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7597,16 +7591,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C253" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D253" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E253" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7614,16 +7608,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C254" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D254" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E254" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7631,16 +7625,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C255" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D255" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E255" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7648,16 +7642,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C256" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D256" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E256" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7665,16 +7659,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D257" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E257" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7682,16 +7676,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C258" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D258" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E258" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7699,16 +7693,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C259" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D259" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E259" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7716,16 +7710,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C260" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D260" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E260" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7733,16 +7727,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C261" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D261" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E261" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7750,16 +7744,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C262" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D262" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E262" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7767,16 +7761,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C263" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D263" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E263" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7784,16 +7778,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C264" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D264" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E264" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7801,16 +7795,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C265" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D265" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E265" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7818,16 +7812,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C266" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D266" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E266" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7835,16 +7829,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C267" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D267" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E267" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7852,16 +7846,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C268" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D268" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E268" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7869,16 +7863,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C269" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D269" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E269" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7886,16 +7880,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C270" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D270" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E270" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7903,16 +7897,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C271" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D271" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E271" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7920,16 +7914,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C272" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D272" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E272" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7937,16 +7931,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C273" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D273" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E273" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7954,16 +7948,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C274" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D274" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E274" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7971,16 +7965,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C275" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D275" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E275" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7988,16 +7982,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C276" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D276" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E276" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8005,16 +7999,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C277" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D277" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E277" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8022,16 +8016,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C278" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D278" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E278" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8039,16 +8033,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C279" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D279" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E279" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8056,16 +8050,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C280" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D280" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E280" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8073,16 +8067,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C281" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D281" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E281" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8090,16 +8084,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C282" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D282" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E282" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8107,16 +8101,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C283" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D283" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E283" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8124,16 +8118,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C284" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D284" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E284" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8141,16 +8135,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C285" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D285" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E285" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8158,16 +8152,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C286" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D286" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E286" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8175,16 +8169,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C287" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D287" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E287" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8192,16 +8186,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C288" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D288" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E288" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8209,16 +8203,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C289" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D289" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E289" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8226,16 +8220,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C290" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D290" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E290" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8243,16 +8237,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C291" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D291" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E291" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8260,16 +8254,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C292" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D292" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E292" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8277,16 +8271,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C293" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D293" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E293" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8294,16 +8288,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C294" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D294" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E294" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8311,16 +8305,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C295" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D295" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E295" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8328,16 +8322,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C296" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D296" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E296" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8345,16 +8339,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C297" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D297" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E297" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8362,16 +8356,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C298" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D298" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E298" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8379,16 +8373,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C299" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D299" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E299" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8396,16 +8390,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C300" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D300" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E300" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8413,16 +8407,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C301" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D301" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E301" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8430,16 +8424,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C302" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D302" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E302" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8447,16 +8441,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C303" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D303" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E303" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8464,16 +8458,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C304" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D304" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E304" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8481,16 +8475,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C305" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D305" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E305" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8498,16 +8492,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C306" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D306" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E306" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8515,16 +8509,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C307" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D307" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E307" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8532,16 +8526,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C308" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D308" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E308" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8549,16 +8543,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C309" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D309" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E309" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8566,16 +8560,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C310" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D310" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E310" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8583,16 +8577,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C311" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D311" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E311" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8600,16 +8594,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C312" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D312" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E312" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8617,16 +8611,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C313" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D313" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E313" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8634,16 +8628,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C314" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D314" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E314" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8651,16 +8645,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C315" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D315" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E315" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8668,16 +8662,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C316" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D316" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E316" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8685,16 +8679,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C317" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D317" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E317" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8702,16 +8696,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C318" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D318" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E318" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8719,16 +8713,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C319" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D319" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E319" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8736,16 +8730,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C320" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D320" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E320" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8753,16 +8747,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C321" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D321" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E321" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8770,16 +8764,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C322" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D322" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E322" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8787,16 +8781,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C323" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D323" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E323" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8804,16 +8798,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C324" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D324" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E324" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8821,16 +8815,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C325" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D325" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E325" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8838,16 +8832,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C326" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D326" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E326" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8855,16 +8849,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C327" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D327" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E327" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8872,16 +8866,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C328" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D328" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E328" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8889,16 +8883,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C329" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D329" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E329" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8906,16 +8900,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C330" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D330" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E330" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8923,16 +8917,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C331" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D331" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E331" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8940,16 +8934,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C332" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D332" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E332" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8957,16 +8951,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C333" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D333" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E333" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8974,16 +8968,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C334" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D334" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E334" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8991,16 +8985,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C335" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D335" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E335" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9008,16 +9002,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C336" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D336" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E336" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9025,16 +9019,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C337" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D337" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E337" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9042,16 +9036,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C338" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D338" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E338" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9059,16 +9053,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C339" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D339" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E339" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9076,16 +9070,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C340" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D340" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E340" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9093,16 +9087,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C341" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D341" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E341" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9110,16 +9104,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C342" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D342" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E342" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9127,16 +9121,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C343" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D343" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E343" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9144,16 +9138,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C344" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D344" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E344" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9161,16 +9155,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C345" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D345" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E345" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9178,16 +9172,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C346" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D346" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E346" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9195,16 +9189,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C347" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D347" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E347" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9212,16 +9206,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C348" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D348" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E348" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9229,16 +9223,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C349" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D349" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E349" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9246,16 +9240,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C350" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D350" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E350" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9263,16 +9257,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C351" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D351" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E351" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9280,16 +9274,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C352" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D352" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E352" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9297,16 +9291,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D353" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E353" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9314,16 +9308,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D354" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E354" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9331,16 +9325,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C355" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D355" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E355" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9348,16 +9342,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C356" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D356" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E356" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9365,16 +9359,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C357" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D357" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E357" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9382,16 +9376,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C358" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D358" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E358" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9399,16 +9393,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C359" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D359" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E359" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9416,16 +9410,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C360" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D360" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E360" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9433,16 +9427,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C361" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D361" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E361" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9450,16 +9444,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C362" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D362" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E362" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9467,16 +9461,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C363" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D363" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E363" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9484,16 +9478,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C364" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D364" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E364" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9501,16 +9495,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C365" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D365" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E365" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9518,16 +9512,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C366" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D366" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E366" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9535,16 +9529,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C367" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D367" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E367" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9552,16 +9546,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D368" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E368" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9569,16 +9563,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D369" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E369" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9586,16 +9580,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C370" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D370" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E370" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9603,16 +9597,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C371" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D371" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E371" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9620,16 +9614,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C372" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D372" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E372" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9637,16 +9631,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C373" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D373" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E373" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9654,16 +9648,16 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C374" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D374" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E374" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9671,16 +9665,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D375" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E375" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9688,16 +9682,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C376" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D376" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E376" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9705,16 +9699,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C377" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D377" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E377" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9722,16 +9716,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D378" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E378" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9739,16 +9733,16 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D379" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E379" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9756,16 +9750,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C380" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D380" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E380" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9773,16 +9767,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C381" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D381" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E381" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9790,16 +9784,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C382" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D382" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E382" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9807,16 +9801,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C383" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D383" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E383" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9824,16 +9818,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C384" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D384" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E384" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9841,16 +9835,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C385" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D385" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E385" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9858,16 +9852,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C386" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D386" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E386" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9875,16 +9869,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C387" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D387" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E387" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9892,16 +9886,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C388" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D388" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E388" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9909,16 +9903,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C389" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D389" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E389" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9926,16 +9920,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C390" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D390" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E390" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9943,16 +9937,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C391" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D391" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E391" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9960,16 +9954,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C392" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D392" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E392" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9977,16 +9971,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C393" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D393" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E393" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9994,16 +9988,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C394" t="s">
-        <v>866</v>
+        <v>493</v>
       </c>
       <c r="D394" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E394" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10011,16 +10005,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C395" t="s">
-        <v>494</v>
+        <v>865</v>
       </c>
       <c r="D395" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E395" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10028,16 +10022,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C396" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D396" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E396" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10045,16 +10039,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C397" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D397" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E397" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10062,16 +10056,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C398" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D398" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E398" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10079,16 +10073,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C399" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D399" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E399" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10096,16 +10090,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C400" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D400" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E400" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10113,16 +10107,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C401" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D401" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E401" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10130,16 +10124,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C402" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D402" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E402" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10147,16 +10141,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C403" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D403" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E403" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10164,16 +10158,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C404" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D404" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E404" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10181,16 +10175,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C405" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D405" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E405" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10198,16 +10192,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C406" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D406" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E406" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10215,16 +10209,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C407" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D407" t="s">
-        <v>965</v>
+        <v>929</v>
       </c>
       <c r="E407" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10232,16 +10226,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C408" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D408" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E408" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10249,16 +10243,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C409" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D409" t="s">
-        <v>931</v>
+        <v>474</v>
       </c>
       <c r="E409" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10266,16 +10260,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C410" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D410" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E410" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10283,16 +10277,16 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C411" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D411" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E411" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10300,16 +10294,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C412" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D412" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E412" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10317,16 +10311,16 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C413" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D413" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E413" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10334,16 +10328,16 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C414" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D414" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E414" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10351,16 +10345,16 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C415" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D415" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E415" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10368,16 +10362,16 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C416" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D416" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E416" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10385,16 +10379,16 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C417" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D417" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E417" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10402,16 +10396,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C418" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D418" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E418" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10419,16 +10413,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C419" t="s">
         <v>888</v>
       </c>
       <c r="D419" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E419" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10436,16 +10430,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C420" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D420" t="s">
-        <v>475</v>
+        <v>964</v>
       </c>
       <c r="E420" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10453,16 +10447,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C421" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D421" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E421" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10470,16 +10464,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C422" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D422" t="s">
-        <v>966</v>
+        <v>475</v>
       </c>
       <c r="E422" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10487,16 +10481,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C423" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D423" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E423" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10504,16 +10498,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C424" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D424" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E424" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10521,16 +10515,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C425" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D425" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E425" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10538,16 +10532,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C426" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D426" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E426" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10555,16 +10549,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C427" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D427" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E427" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10572,16 +10566,16 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C428" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D428" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E428" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10589,16 +10583,16 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C429" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D429" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E429" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10606,16 +10600,16 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C430" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D430" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E430" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10623,16 +10617,16 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C431" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D431" t="s">
-        <v>476</v>
+        <v>965</v>
       </c>
       <c r="E431" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10640,16 +10634,16 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C432" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D432" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E432" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10657,16 +10651,16 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D433" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E433" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10674,16 +10668,16 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C434" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D434" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E434" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10691,16 +10685,16 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C435" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D435" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E435" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10708,16 +10702,16 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C436" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D436" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E436" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10725,16 +10719,16 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C437" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D437" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E437" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10742,16 +10736,16 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C438" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D438" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E438" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10759,16 +10753,16 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C439" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D439" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E439" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10776,16 +10770,16 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C440" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D440" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E440" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10793,16 +10787,16 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C441" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D441" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E441" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10810,16 +10804,16 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C442" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D442" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E442" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10827,16 +10821,16 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C443" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D443" t="s">
-        <v>967</v>
+        <v>469</v>
       </c>
       <c r="E443" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10844,16 +10838,16 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C444" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D444" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E444" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10861,16 +10855,16 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C445" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D445" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E445" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10878,16 +10872,16 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C446" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D446" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E446" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10895,16 +10889,16 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C447" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D447" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E447" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10912,16 +10906,16 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C448" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D448" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E448" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10929,16 +10923,16 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C449" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D449" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E449" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10946,16 +10940,16 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C450" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D450" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E450" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10963,16 +10957,16 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C451" t="s">
         <v>919</v>
       </c>
       <c r="D451" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E451" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10980,16 +10974,16 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C452" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D452" t="s">
-        <v>470</v>
+        <v>966</v>
       </c>
       <c r="E452" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10997,16 +10991,16 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C453" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D453" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E453" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11014,16 +11008,16 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C454" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D454" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E454" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11031,16 +11025,16 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C455" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D455" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E455" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11048,16 +11042,16 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C456" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D456" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E456" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11065,16 +11059,16 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C457" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D457" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E457" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11082,16 +11076,16 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C458" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D458" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E458" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11099,16 +11093,16 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C459" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D459" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E459" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11116,33 +11110,16 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C460" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D460" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E460" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="A461" t="s">
-        <v>464</v>
-      </c>
-      <c r="B461" t="s">
-        <v>474</v>
-      </c>
-      <c r="C461" t="s">
-        <v>930</v>
-      </c>
-      <c r="D461" t="s">
-        <v>969</v>
-      </c>
-      <c r="E461" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -88,6 +88,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>vasa 2</t>
   </si>
   <si>
@@ -382,39 +385,39 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -439,9 +442,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -1048,12 +1048,12 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar 1</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
     <t>uppajjeyya</t>
   </si>
   <si>
-    <t>hanati 3</t>
+    <t>hanati 2</t>
   </si>
   <si>
     <t>kareyya 1</t>
@@ -1342,18 +1342,18 @@
     <t>pīti 1</t>
   </si>
   <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
+    <t>vimutti</t>
+  </si>
+  <si>
     <t>hiri</t>
   </si>
   <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
-    <t>vimutti</t>
-  </si>
-  <si>
     <t>yattha</t>
   </si>
   <si>
@@ -1501,6 +1501,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>control; authority; power; mastery</t>
   </si>
   <si>
@@ -1795,39 +1798,39 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -1852,9 +1855,6 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
   </si>
   <si>
@@ -2452,12 +2452,12 @@
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>speaker</t>
   </si>
   <si>
-    <t>giver; donor; bestower</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -2554,7 +2554,7 @@
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
-    <t>punishes; flogs; beats</t>
+    <t>kills; executes</t>
   </si>
   <si>
     <t>could do; would do</t>
@@ -2740,16 +2740,16 @@
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
+    <t>calmness; tranquillity; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
+    <t>release; deliverance; freedom; liberation</t>
+  </si>
+  <si>
     <t>sense of shame; modesty; conscience; sense of right and wrong; scruples; (comm) due the internal</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
-    <t>release; deliverance; freedom; liberation</t>
   </si>
   <si>
     <t>wherever; where; lit. in whichever place</t>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -31,24 +31,264 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -58,6 +298,42 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -70,282 +346,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -463,144 +463,144 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -670,33 +670,33 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -706,27 +706,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -775,15 +775,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -832,21 +832,21 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -889,18 +889,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -931,27 +931,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1003,12 +1003,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -1021,30 +1021,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1066,12 +1066,12 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1135,18 +1135,18 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -1162,54 +1162,54 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>avijjā</t>
   </si>
   <si>
@@ -1291,12 +1291,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>vineyya 1</t>
   </si>
   <si>
@@ -1318,27 +1318,27 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -1444,24 +1444,264 @@
     <t>ger</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -1471,6 +1711,42 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1483,282 +1759,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -1876,144 +1876,144 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -2080,33 +2080,33 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2116,27 +2116,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -2185,15 +2185,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -2242,21 +2242,21 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -2296,18 +2296,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -2338,27 +2338,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -2407,12 +2407,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -2425,30 +2425,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -2470,12 +2470,12 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -2539,18 +2539,18 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -2566,51 +2566,51 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>ignorance; illusion; not knowing; not understanding; stupidity</t>
   </si>
   <si>
@@ -2689,12 +2689,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>removing; getting rid of; giving up; driving out</t>
   </si>
   <si>
@@ -2716,25 +2716,25 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
   </si>
   <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
@@ -5874,7 +5874,7 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C152" t="s">
         <v>626</v>
@@ -5959,7 +5959,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C157" t="s">
         <v>631</v>
@@ -7200,7 +7200,7 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C230" t="s">
         <v>703</v>
@@ -7234,7 +7234,7 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C232" t="s">
         <v>705</v>
@@ -9974,7 +9974,7 @@
         <v>473</v>
       </c>
       <c r="C393" t="s">
-        <v>864</v>
+        <v>480</v>
       </c>
       <c r="D393" t="s">
         <v>963</v>
@@ -9991,7 +9991,7 @@
         <v>473</v>
       </c>
       <c r="C394" t="s">
-        <v>493</v>
+        <v>864</v>
       </c>
       <c r="D394" t="s">
         <v>963</v>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="976">
   <si>
     <t>Pāli1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -52,10 +52,10 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
   </si>
   <si>
     <t>puggala</t>
@@ -88,10 +88,10 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
   </si>
   <si>
     <t>paccaya 2</t>
@@ -100,10 +100,10 @@
     <t>purisa 1</t>
   </si>
   <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -112,297 +112,297 @@
     <t>pañha 2</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -424,10 +424,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -442,7 +442,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -481,7 +481,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -502,10 +502,10 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
   </si>
   <si>
     <t>rakkhati 2</t>
@@ -514,7 +514,7 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>yācati 1</t>
@@ -550,16 +550,16 @@
     <t>nikkhipati 3</t>
   </si>
   <si>
-    <t>bhajati 1</t>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>vattati 1</t>
   </si>
   <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>nisīdati</t>
@@ -607,7 +607,7 @@
     <t>gaccha 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>pūjeti 1</t>
@@ -685,18 +685,18 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
     <t>nibbindati 1</t>
   </si>
   <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -709,13 +709,13 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>amhi</t>
@@ -754,7 +754,7 @@
     <t>udapādi 1</t>
   </si>
   <si>
-    <t>abhinandi</t>
+    <t>abhinandi 1</t>
   </si>
   <si>
     <t>pakkāmi 1</t>
@@ -829,7 +829,7 @@
     <t>āsiṃ</t>
   </si>
   <si>
-    <t>āsi 1</t>
+    <t>āsi 1.1</t>
   </si>
   <si>
     <t>mada 1</t>
@@ -856,10 +856,10 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
   </si>
   <si>
     <t>mayaṃ</t>
@@ -868,7 +868,7 @@
     <t>me 5</t>
   </si>
   <si>
-    <t>no 7</t>
+    <t>no 2.4</t>
   </si>
   <si>
     <t>amhākaṃ 3</t>
@@ -886,7 +886,7 @@
     <t>sobhati 2</t>
   </si>
   <si>
-    <t>neti 1</t>
+    <t>neti 1.1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -898,10 +898,10 @@
     <t>saha 2</t>
   </si>
   <si>
-    <t>no 3</t>
-  </si>
-  <si>
-    <t>no 1</t>
+    <t>no 1.3</t>
+  </si>
+  <si>
+    <t>no 1.1</t>
   </si>
   <si>
     <t>mā 1</t>
@@ -928,19 +928,19 @@
     <t>dhāressati</t>
   </si>
   <si>
-    <t>dassati 1</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
+    <t>dassati 1.1</t>
+  </si>
+  <si>
+    <t>vo 1.3</t>
+  </si>
+  <si>
+    <t>vo 1.2</t>
   </si>
   <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 3</t>
+    <t>taṃ 2.1</t>
   </si>
   <si>
     <t>tumhākaṃ 2</t>
@@ -955,7 +955,7 @@
     <t>tvaṃ 1</t>
   </si>
   <si>
-    <t>te 6</t>
+    <t>te 2.4</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -964,7 +964,7 @@
     <t>tayā 1</t>
   </si>
   <si>
-    <t>vo 4</t>
+    <t>vo 1.4</t>
   </si>
   <si>
     <t>nābhijānāti 1</t>
@@ -985,7 +985,7 @@
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1</t>
+    <t>bhogī 1.1</t>
   </si>
   <si>
     <t>dhammī 1</t>
@@ -1024,7 +1024,7 @@
     <t>paññavant</t>
   </si>
   <si>
-    <t>balavant</t>
+    <t>balavant 1</t>
   </si>
   <si>
     <t>satimant 1</t>
@@ -1126,7 +1126,7 @@
     <t>lokavidū</t>
   </si>
   <si>
-    <t>gāha 4</t>
+    <t>gāha 2.2</t>
   </si>
   <si>
     <t>paṭighāta 1</t>
@@ -1159,7 +1159,7 @@
     <t>siyā 2</t>
   </si>
   <si>
-    <t>assa 3</t>
+    <t>assa 3.1</t>
   </si>
   <si>
     <t>sikkhā 2</t>
@@ -1321,7 +1321,7 @@
     <t>ṭhiti 1</t>
   </si>
   <si>
-    <t>visuddhi 1</t>
+    <t>visuddhi 1.1</t>
   </si>
   <si>
     <t>āpatti 2</t>
@@ -1336,10 +1336,10 @@
     <t>ruci</t>
   </si>
   <si>
-    <t>sati 2</t>
-  </si>
-  <si>
-    <t>pīti 1</t>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
   </si>
   <si>
     <t>passaddhi</t>
@@ -1447,415 +1447,412 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>control; authority; power; mastery</t>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
   </si>
   <si>
     <t>calf; yearling; young animal</t>
   </si>
   <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
   </si>
   <si>
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>child; son</t>
+    <t>son; child</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
   </si>
   <si>
     <t>man; person</t>
   </si>
   <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
   </si>
   <si>
     <t>question; enquiry</t>
   </si>
   <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method; lit. path</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -1864,10 +1861,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -1876,28 +1873,28 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
     <t>practices; indulges (in); engages (in); lit. associates</t>
   </si>
   <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>binds; ties up; imprisons; confines</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -1906,49 +1903,49 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
   </si>
   <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
   </si>
   <si>
     <t>takes; steals; robs</t>
   </si>
   <si>
-    <t>obtains; receives; gets</t>
+    <t>obtains; gets; receives; personally experiences</t>
   </si>
   <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
-    <t>speaks; says; proclaims</t>
+    <t>speaks; says; tells</t>
   </si>
   <si>
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
-    <t>leaves; abandons; gives up; forsakes</t>
+    <t>gives up; leaves; abandons; deserts</t>
   </si>
   <si>
     <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
@@ -1957,10 +1954,10 @@
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
   </si>
   <si>
     <t>associates (with); keeps company (with)</t>
@@ -1972,40 +1969,40 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
   </si>
   <si>
     <t>lives (in); dwells (in)</t>
@@ -2017,7 +2014,7 @@
     <t>sees</t>
   </si>
   <si>
-    <t>go! begone!</t>
+    <t>go!; begone!</t>
   </si>
   <si>
     <t>walks; wanders; goes around; travels; fares on</t>
@@ -2026,43 +2023,43 @@
     <t>worships; honours; respects</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>applies effort; strives on; goes for it; endeavours; lit. take forward</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>feels; experiences; senses; notices</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>applies effort; strives on; goes for it; endeavours</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>gives; offers; donates</t>
+    <t>gives (to); offers (to); donates (to)</t>
   </si>
   <si>
     <t>knows; understands</t>
@@ -2071,10 +2068,10 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>reaches; arrives (at); attains; experiences</t>
-  </si>
-  <si>
-    <t>merchant; trader</t>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>trader; dealer</t>
   </si>
   <si>
     <t>farmer; ploughman</t>
@@ -2086,19 +2083,16 @@
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
     <t>eats; consumes</t>
@@ -2107,10 +2101,13 @@
     <t>appears; arises; takes place</t>
   </si>
   <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>cuts; cuts off; severs</t>
+    <t>cuts off; severs</t>
   </si>
   <si>
     <t>causes; effects</t>
@@ -2131,61 +2128,61 @@
     <t>I am</t>
   </si>
   <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
+    <t>virtuous woman; good woman</t>
+  </si>
+  <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>addressed; said (to); advised</t>
   </si>
   <si>
     <t>was; existed; became</t>
   </si>
   <si>
-    <t>appeared; manifested; lit. became visible</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
+    <t>appeared; manifested; lit. was visible</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
-    <t>replied; assented; agreed</t>
+    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>
   </si>
   <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>left; set off (from); went away (from); came out (of)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>left; set off (from); went away (from)</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
     <t>asked; enquired; questioned</t>
   </si>
   <si>
-    <t>approached; drew near; went (to)</t>
+    <t>approached; drew near; went (to); lit. went near</t>
   </si>
   <si>
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fine rice</t>
   </si>
   <si>
     <t>fire</t>
@@ -2200,25 +2197,25 @@
     <t>palms placed together (as a token of respect)</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
   </si>
   <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
     <t>does; acts; performs</t>
   </si>
   <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>honours; esteems; respects; lit. makes properly</t>
+    <t>do!; make!</t>
+  </si>
+  <si>
+    <t>honours; esteems; respects</t>
   </si>
   <si>
     <t>does; performs; lit. constructs</t>
@@ -2233,52 +2230,55 @@
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; explained</t>
+    <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
     <t>I was</t>
   </si>
   <si>
-    <t>one was; it was</t>
-  </si>
-  <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
+    <t>was</t>
+  </si>
+  <si>
+    <t>excess; pleasure; indulgence</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
-    <t>false teaching; against the teaching</t>
+    <t>false teaching; something opposed to the teaching</t>
   </si>
   <si>
     <t>skin</t>
   </si>
   <si>
-    <t>complete comprehension (of); total understanding (of); lit. arriving</t>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
+    <t>my; mine; of me</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
   </si>
   <si>
     <t>my; mine</t>
   </si>
   <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
-    <t>our; of us</t>
+    <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>I</t>
@@ -2287,7 +2287,7 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>for me; to me</t>
+    <t>to me; for me</t>
   </si>
   <si>
     <t>looks beautiful (in); lit. shines</t>
@@ -2296,7 +2296,7 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
+    <t>no; not; neither; nor</t>
   </si>
   <si>
     <t>together (with); with</t>
@@ -2311,7 +2311,7 @@
     <t>no; not</t>
   </si>
   <si>
-    <t>do not; may one not</t>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>will explain; will define; will describes</t>
@@ -2320,7 +2320,7 @@
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>could be; should be; will be</t>
+    <t>could be; should be; lit. will be</t>
   </si>
   <si>
     <t>will go</t>
@@ -2329,10 +2329,10 @@
     <t>will exhale; will breathe out</t>
   </si>
   <si>
-    <t>is not; it is not; there is not; there is no</t>
-  </si>
-  <si>
-    <t>will take; will consider; will keep in mind; lit. will hold</t>
+    <t>is not; it is not; there is not; there is no; there is nothing</t>
+  </si>
+  <si>
+    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
     <t>will give (to)</t>
@@ -2350,31 +2350,34 @@
     <t>you (object)</t>
   </si>
   <si>
-    <t>to you; for you all</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural)</t>
+    <t>for you all; to you all</t>
+  </si>
+  <si>
+    <t>(object) you all; you (royal plural)</t>
+  </si>
+  <si>
+    <t>you all; you (royal plural)</t>
+  </si>
+  <si>
+    <t>you (subject)</t>
+  </si>
+  <si>
+    <t>your; of you</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>your; of you</t>
-  </si>
-  <si>
-    <t>by you; with you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>does not know; does not understand</t>
-  </si>
-  <si>
-    <t>afraid of wrong; feeling shame; conscientious</t>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>does not know; does not understand; lit. does not completely know</t>
+  </si>
+  <si>
+    <t>afraid of wrong; conscientious</t>
   </si>
   <si>
     <t>speaking; saying; telling</t>
@@ -2386,7 +2389,7 @@
     <t>who sees; who knows; who perceives; who understands</t>
   </si>
   <si>
-    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+    <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
     <t>enjoying; using; experiencing; partaking in</t>
@@ -2401,22 +2404,22 @@
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
-    <t>who does not return; non-returning (in this world)</t>
-  </si>
-  <si>
-    <t>who returns once; once-returner</t>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
   </si>
   <si>
     <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
-    <t>celibate person; one living the holy life</t>
+    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
-    <t>intelligent man; wise man; lit. who has wisdom</t>
+    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
     <t>bird; lit. with wings</t>
@@ -2425,37 +2428,37 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
+    <t>wise; intelligent; insightful; percipient; lit. having wisdom quality</t>
+  </si>
+  <si>
+    <t>strong; powerful; lit. having strength quality</t>
   </si>
   <si>
     <t>mindful; fully present; attentive; lit. having memory quality</t>
   </si>
   <si>
-    <t>virtuous; observing the moral practices</t>
-  </si>
-  <si>
-    <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
-  </si>
-  <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
+    <t>virtuous; ethical; moral; lit. having conduct quality</t>
+  </si>
+  <si>
+    <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
+  </si>
+  <si>
+    <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>teacher; master; the Buddha</t>
+    <t>master; teacher</t>
   </si>
   <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker; who talks (about)</t>
   </si>
   <si>
     <t>father</t>
@@ -2470,25 +2473,25 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
+    <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>when; whenever; lit. at whichever time</t>
-  </si>
-  <si>
-    <t>ever; always</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>when; whenever</t>
+  </si>
+  <si>
+    <t>always; ever; all the time</t>
+  </si>
+  <si>
+    <t>and; both</t>
   </si>
   <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>after; afterwards; in the future</t>
+    <t>afterwards; later; in the future</t>
   </si>
   <si>
     <t>formerly; previously; in the past</t>
@@ -2497,34 +2500,34 @@
     <t>today; now</t>
   </si>
   <si>
-    <t>previously; formerly; in the past</t>
+    <t>before; previously; formerly; in the past</t>
   </si>
   <si>
     <t>respect; honour</t>
   </si>
   <si>
-    <t>monk; an almsman; mendicant; lit. beggar</t>
-  </si>
-  <si>
-    <t>death; the Death; the Māra; personification of evil forses</t>
-  </si>
-  <si>
-    <t>ease; comfort</t>
+    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
+  </si>
+  <si>
+    <t>death; Death</t>
+  </si>
+  <si>
+    <t>ease (for); comfort (for)</t>
   </si>
   <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
-    <t>of long standing; lit. who knowing (many) night (as a monk)</t>
+    <t>old; experienced; of long standing; lit. knowing nights</t>
   </si>
   <si>
     <t>wise; knowing; understanding</t>
   </si>
   <si>
-    <t>knowing the measure or limit; moderate</t>
-  </si>
-  <si>
-    <t>conqueror; victor; vanquisher</t>
+    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
+  </si>
+  <si>
+    <t>conqueror; victor; vanquisher; master</t>
   </si>
   <si>
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
@@ -2533,13 +2536,13 @@
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; counteract; lit. beating back</t>
+    <t>warding off; repelling; driving off</t>
   </si>
   <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
-    <t>could know; would understand; could be aware; would find out</t>
+    <t>should know; should understand; should find out</t>
   </si>
   <si>
     <t>could come; would come along; could approach; would arrive</t>
@@ -2551,37 +2554,37 @@
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
+    <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>kills; executes</t>
   </si>
   <si>
-    <t>could do; would do</t>
+    <t>could do; would do; could make</t>
   </si>
   <si>
     <t>there could be</t>
   </si>
   <si>
-    <t>may be; would be; could be</t>
+    <t>may be; could be; should be</t>
   </si>
   <si>
     <t>training; practice</t>
   </si>
   <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
+    <t>verse; poem; stanza; lit. song</t>
+  </si>
+  <si>
+    <t>old age; ageing</t>
+  </si>
+  <si>
+    <t>direction; cardinal point</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
+  </si>
+  <si>
+    <t>army; military</t>
   </si>
   <si>
     <t>branch</t>
@@ -2590,49 +2593,49 @@
     <t>arm; forearm</t>
   </si>
   <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
+    <t>speech; words; statement; talk</t>
+  </si>
+  <si>
+    <t>craving (for); wanting; desire (for); lit. thirst</t>
+  </si>
+  <si>
+    <t>felt experience; feeling; sensation; second of the five aggregates</t>
   </si>
   <si>
     <t>tongue</t>
   </si>
   <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>personal experience; realization</t>
-  </si>
-  <si>
-    <t>ignorance; illusion; not knowing; not understanding; stupidity</t>
+    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
+  </si>
+  <si>
+    <t>(vinaya) ordination; renunciation; becoming a monastic; lit. exile</t>
+  </si>
+  <si>
+    <t>personal experience (of); intimate experience (of); personal realization (of); lit. personally doing</t>
+  </si>
+  <si>
+    <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
     <t>sitting; sitting down</t>
   </si>
   <si>
-    <t>speech; story; talk</t>
+    <t>talk; speech; conversation; discussion</t>
   </si>
   <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
-    <t>mental poise; balance; equanimity; equipoise</t>
+    <t>looking on; mental poise; mental balance; equanimity; equipoise; non-reactivity; composure</t>
   </si>
   <si>
     <t>sub-commentary; commentary on a commentary</t>
   </si>
   <si>
-    <t>dis-enchantment; de-illusionment; disinterest</t>
-  </si>
-  <si>
-    <t>goodwill; friendliness; benevolence</t>
+    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
+  </si>
+  <si>
+    <t>goodwill (towards); friendliness (to); benevolence (for)</t>
   </si>
   <si>
     <t>perception; conception; recognition; third of the five aggregates</t>
@@ -2644,22 +2647,22 @@
     <t>knowledge; wisdom; understanding</t>
   </si>
   <si>
-    <t>insight; penetrating internal vision; introspection; lit. distinct seeing</t>
+    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>teaching; instruction; exhortation</t>
-  </si>
-  <si>
-    <t>having caught; having arrested; lit. having taken</t>
-  </si>
-  <si>
-    <t>having dressed (in); having clothed oneself (in); having put on</t>
-  </si>
-  <si>
-    <t>having gave up; having left behind; having abandoned</t>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
+    <t>having arrested; having taken prisoner</t>
+  </si>
+  <si>
+    <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
+  </si>
+  <si>
+    <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
     <t>having raised up; having lifted up</t>
@@ -2668,7 +2671,7 @@
     <t>having tasted</t>
   </si>
   <si>
-    <t>having cut off; having severed</t>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
   </si>
   <si>
     <t>having bent; having folded</t>
@@ -2677,7 +2680,7 @@
     <t>having done</t>
   </si>
   <si>
-    <t>having taken; having grabbed hold of</t>
+    <t>having taken; having grabbed hold (of); having seized</t>
   </si>
   <si>
     <t>having approached; having gone (to); having drawn near (to)</t>
@@ -2689,73 +2692,73 @@
     <t>daughter</t>
   </si>
   <si>
-    <t>coming; approaching</t>
+    <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>removing; getting rid of; giving up; driving out</t>
-  </si>
-  <si>
-    <t>guiding; applying; directing; intending</t>
-  </si>
-  <si>
-    <t>adopting; considering; according (to); lit. taking</t>
+    <t>removing; getting rid (of)</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
   </si>
   <si>
     <t>reaching; attaining; arriving at</t>
   </si>
   <si>
-    <t>separating oneself from; aloof from</t>
-  </si>
-  <si>
-    <t>rising (from); getting up (from)</t>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
+    <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
+  </si>
+  <si>
+    <t>purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; wrongdoing; transgression</t>
   </si>
   <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
+    <t>attainment; meditation attainment</t>
+  </si>
+  <si>
+    <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; peace; stillness; serenity</t>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
   </si>
   <si>
-    <t>release; deliverance; freedom; liberation</t>
-  </si>
-  <si>
-    <t>sense of shame; modesty; conscience; sense of right and wrong; scruples; (comm) due the internal</t>
-  </si>
-  <si>
-    <t>wherever; where; lit. in whichever place</t>
-  </si>
-  <si>
-    <t>here; in this place; in this regard</t>
+    <t>freedom; liberation; release; deliverance</t>
+  </si>
+  <si>
+    <t>sense of shame; modesty; conscience; sense of right and wrong; scruples</t>
+  </si>
+  <si>
+    <t>wherever; where; when; in which</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
     <t>here; in this regard; in this case</t>
@@ -2764,7 +2767,7 @@
     <t>on one side</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
+    <t>everywhere; every place</t>
   </si>
   <si>
     <t>there; in that place</t>
@@ -2776,10 +2779,10 @@
     <t>in that regard; in that case; regarding that matter</t>
   </si>
   <si>
-    <t>state; property; condition</t>
-  </si>
-  <si>
-    <t>thirst; lit. want to drink</t>
+    <t>state; property; condition; element</t>
+  </si>
+  <si>
+    <t>thirst (for)</t>
   </si>
   <si>
     <t>woman; female</t>
@@ -2794,13 +2797,13 @@
     <t>advice; instruction; teaching</t>
   </si>
   <si>
-    <t>capital city of the Licchavis</t>
-  </si>
-  <si>
-    <t>City of Varanasi; Benares</t>
-  </si>
-  <si>
-    <t>Buddhist nun</t>
+    <t>name of a city; capital of the Licchavis</t>
+  </si>
+  <si>
+    <t>name of a city; modern Varanasi</t>
+  </si>
+  <si>
+    <t>nun; fully ordained nun</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -3330,10 +3333,10 @@
         <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3347,10 +3350,10 @@
         <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3364,10 +3367,10 @@
         <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3381,10 +3384,10 @@
         <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3398,10 +3401,10 @@
         <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E6" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3415,10 +3418,10 @@
         <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3432,10 +3435,10 @@
         <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3449,10 +3452,10 @@
         <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E9" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3466,10 +3469,10 @@
         <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E10" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3483,10 +3486,10 @@
         <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E11" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3500,10 +3503,10 @@
         <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3517,10 +3520,10 @@
         <v>487</v>
       </c>
       <c r="D13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3534,10 +3537,10 @@
         <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E14" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3551,10 +3554,10 @@
         <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E15" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3568,10 +3571,10 @@
         <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E16" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3585,10 +3588,10 @@
         <v>491</v>
       </c>
       <c r="D17" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E17" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3602,10 +3605,10 @@
         <v>492</v>
       </c>
       <c r="D18" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E18" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3619,10 +3622,10 @@
         <v>493</v>
       </c>
       <c r="D19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E19" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3636,10 +3639,10 @@
         <v>494</v>
       </c>
       <c r="D20" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E20" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3653,10 +3656,10 @@
         <v>495</v>
       </c>
       <c r="D21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E21" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3670,10 +3673,10 @@
         <v>496</v>
       </c>
       <c r="D22" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E22" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3687,10 +3690,10 @@
         <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E23" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3704,10 +3707,10 @@
         <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E24" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3721,10 +3724,10 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E25" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3738,10 +3741,10 @@
         <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E26" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3755,10 +3758,10 @@
         <v>501</v>
       </c>
       <c r="D27" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E27" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3772,10 +3775,10 @@
         <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E28" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3789,10 +3792,10 @@
         <v>503</v>
       </c>
       <c r="D29" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E29" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3806,10 +3809,10 @@
         <v>504</v>
       </c>
       <c r="D30" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E30" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3823,10 +3826,10 @@
         <v>505</v>
       </c>
       <c r="D31" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E31" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3840,10 +3843,10 @@
         <v>506</v>
       </c>
       <c r="D32" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E32" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3857,10 +3860,10 @@
         <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E33" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3874,10 +3877,10 @@
         <v>508</v>
       </c>
       <c r="D34" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E34" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3891,10 +3894,10 @@
         <v>509</v>
       </c>
       <c r="D35" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E35" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3908,10 +3911,10 @@
         <v>510</v>
       </c>
       <c r="D36" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E36" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3925,10 +3928,10 @@
         <v>511</v>
       </c>
       <c r="D37" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E37" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3942,10 +3945,10 @@
         <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E38" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3959,10 +3962,10 @@
         <v>513</v>
       </c>
       <c r="D39" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E39" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3976,10 +3979,10 @@
         <v>514</v>
       </c>
       <c r="D40" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E40" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3993,10 +3996,10 @@
         <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E41" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4010,10 +4013,10 @@
         <v>516</v>
       </c>
       <c r="D42" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E42" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4027,10 +4030,10 @@
         <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E43" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4044,10 +4047,10 @@
         <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E44" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4061,10 +4064,10 @@
         <v>519</v>
       </c>
       <c r="D45" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E45" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4078,10 +4081,10 @@
         <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E46" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4095,10 +4098,10 @@
         <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E47" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4112,10 +4115,10 @@
         <v>522</v>
       </c>
       <c r="D48" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E48" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4129,10 +4132,10 @@
         <v>523</v>
       </c>
       <c r="D49" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E49" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4146,10 +4149,10 @@
         <v>524</v>
       </c>
       <c r="D50" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E50" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4163,10 +4166,10 @@
         <v>525</v>
       </c>
       <c r="D51" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E51" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4180,10 +4183,10 @@
         <v>526</v>
       </c>
       <c r="D52" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4197,10 +4200,10 @@
         <v>527</v>
       </c>
       <c r="D53" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E53" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4214,10 +4217,10 @@
         <v>528</v>
       </c>
       <c r="D54" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E54" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4231,10 +4234,10 @@
         <v>529</v>
       </c>
       <c r="D55" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E55" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4248,10 +4251,10 @@
         <v>530</v>
       </c>
       <c r="D56" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E56" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4265,10 +4268,10 @@
         <v>531</v>
       </c>
       <c r="D57" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E57" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4282,10 +4285,10 @@
         <v>532</v>
       </c>
       <c r="D58" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E58" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4299,10 +4302,10 @@
         <v>533</v>
       </c>
       <c r="D59" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E59" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4316,10 +4319,10 @@
         <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E60" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4333,10 +4336,10 @@
         <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E61" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4350,10 +4353,10 @@
         <v>536</v>
       </c>
       <c r="D62" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E62" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4367,10 +4370,10 @@
         <v>537</v>
       </c>
       <c r="D63" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E63" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4384,10 +4387,10 @@
         <v>538</v>
       </c>
       <c r="D64" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E64" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4401,10 +4404,10 @@
         <v>539</v>
       </c>
       <c r="D65" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E65" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4418,10 +4421,10 @@
         <v>540</v>
       </c>
       <c r="D66" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E66" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4435,10 +4438,10 @@
         <v>541</v>
       </c>
       <c r="D67" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E67" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4452,10 +4455,10 @@
         <v>542</v>
       </c>
       <c r="D68" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E68" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4469,10 +4472,10 @@
         <v>543</v>
       </c>
       <c r="D69" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E69" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4486,10 +4489,10 @@
         <v>544</v>
       </c>
       <c r="D70" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E70" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4503,10 +4506,10 @@
         <v>545</v>
       </c>
       <c r="D71" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E71" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4520,10 +4523,10 @@
         <v>546</v>
       </c>
       <c r="D72" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E72" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4537,10 +4540,10 @@
         <v>547</v>
       </c>
       <c r="D73" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E73" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4554,10 +4557,10 @@
         <v>548</v>
       </c>
       <c r="D74" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E74" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4571,10 +4574,10 @@
         <v>549</v>
       </c>
       <c r="D75" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E75" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4588,10 +4591,10 @@
         <v>550</v>
       </c>
       <c r="D76" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E76" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4605,10 +4608,10 @@
         <v>551</v>
       </c>
       <c r="D77" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E77" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4622,10 +4625,10 @@
         <v>552</v>
       </c>
       <c r="D78" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E78" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4639,10 +4642,10 @@
         <v>553</v>
       </c>
       <c r="D79" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E79" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4656,10 +4659,10 @@
         <v>554</v>
       </c>
       <c r="D80" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E80" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4673,10 +4676,10 @@
         <v>555</v>
       </c>
       <c r="D81" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E81" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4690,10 +4693,10 @@
         <v>556</v>
       </c>
       <c r="D82" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E82" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4707,10 +4710,10 @@
         <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E83" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4724,10 +4727,10 @@
         <v>558</v>
       </c>
       <c r="D84" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E84" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4741,10 +4744,10 @@
         <v>559</v>
       </c>
       <c r="D85" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E85" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4758,10 +4761,10 @@
         <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E86" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4775,10 +4778,10 @@
         <v>561</v>
       </c>
       <c r="D87" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E87" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4792,10 +4795,10 @@
         <v>562</v>
       </c>
       <c r="D88" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E88" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4809,10 +4812,10 @@
         <v>563</v>
       </c>
       <c r="D89" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E89" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4826,10 +4829,10 @@
         <v>564</v>
       </c>
       <c r="D90" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E90" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4843,10 +4846,10 @@
         <v>565</v>
       </c>
       <c r="D91" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E91" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4860,10 +4863,10 @@
         <v>566</v>
       </c>
       <c r="D92" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E92" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4877,10 +4880,10 @@
         <v>567</v>
       </c>
       <c r="D93" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E93" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4894,10 +4897,10 @@
         <v>568</v>
       </c>
       <c r="D94" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E94" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4911,10 +4914,10 @@
         <v>569</v>
       </c>
       <c r="D95" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E95" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4928,10 +4931,10 @@
         <v>570</v>
       </c>
       <c r="D96" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E96" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4945,10 +4948,10 @@
         <v>571</v>
       </c>
       <c r="D97" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E97" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4962,10 +4965,10 @@
         <v>572</v>
       </c>
       <c r="D98" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E98" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4979,10 +4982,10 @@
         <v>573</v>
       </c>
       <c r="D99" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E99" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4996,10 +4999,10 @@
         <v>574</v>
       </c>
       <c r="D100" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E100" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5013,10 +5016,10 @@
         <v>575</v>
       </c>
       <c r="D101" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E101" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5030,10 +5033,10 @@
         <v>576</v>
       </c>
       <c r="D102" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E102" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5047,10 +5050,10 @@
         <v>577</v>
       </c>
       <c r="D103" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E103" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5064,10 +5067,10 @@
         <v>578</v>
       </c>
       <c r="D104" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E104" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5081,10 +5084,10 @@
         <v>579</v>
       </c>
       <c r="D105" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E105" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5098,10 +5101,10 @@
         <v>580</v>
       </c>
       <c r="D106" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E106" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5115,10 +5118,10 @@
         <v>581</v>
       </c>
       <c r="D107" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E107" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5132,10 +5135,10 @@
         <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E108" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5149,10 +5152,10 @@
         <v>583</v>
       </c>
       <c r="D109" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E109" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5166,10 +5169,10 @@
         <v>584</v>
       </c>
       <c r="D110" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E110" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5183,10 +5186,10 @@
         <v>585</v>
       </c>
       <c r="D111" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E111" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5200,10 +5203,10 @@
         <v>586</v>
       </c>
       <c r="D112" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E112" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5217,10 +5220,10 @@
         <v>587</v>
       </c>
       <c r="D113" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E113" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5234,10 +5237,10 @@
         <v>588</v>
       </c>
       <c r="D114" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E114" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5251,10 +5254,10 @@
         <v>589</v>
       </c>
       <c r="D115" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E115" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5268,10 +5271,10 @@
         <v>590</v>
       </c>
       <c r="D116" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E116" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5285,10 +5288,10 @@
         <v>591</v>
       </c>
       <c r="D117" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E117" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5302,10 +5305,10 @@
         <v>592</v>
       </c>
       <c r="D118" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E118" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5319,10 +5322,10 @@
         <v>593</v>
       </c>
       <c r="D119" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E119" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5336,10 +5339,10 @@
         <v>594</v>
       </c>
       <c r="D120" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E120" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5353,10 +5356,10 @@
         <v>595</v>
       </c>
       <c r="D121" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E121" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5370,10 +5373,10 @@
         <v>596</v>
       </c>
       <c r="D122" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E122" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5387,10 +5390,10 @@
         <v>597</v>
       </c>
       <c r="D123" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E123" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5404,10 +5407,10 @@
         <v>598</v>
       </c>
       <c r="D124" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E124" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5421,10 +5424,10 @@
         <v>599</v>
       </c>
       <c r="D125" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E125" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5438,10 +5441,10 @@
         <v>600</v>
       </c>
       <c r="D126" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E126" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5455,10 +5458,10 @@
         <v>601</v>
       </c>
       <c r="D127" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E127" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5472,10 +5475,10 @@
         <v>602</v>
       </c>
       <c r="D128" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E128" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5489,10 +5492,10 @@
         <v>603</v>
       </c>
       <c r="D129" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E129" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5506,10 +5509,10 @@
         <v>604</v>
       </c>
       <c r="D130" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E130" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5523,10 +5526,10 @@
         <v>605</v>
       </c>
       <c r="D131" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E131" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5540,10 +5543,10 @@
         <v>606</v>
       </c>
       <c r="D132" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E132" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5557,10 +5560,10 @@
         <v>607</v>
       </c>
       <c r="D133" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E133" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5574,10 +5577,10 @@
         <v>608</v>
       </c>
       <c r="D134" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E134" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5588,13 +5591,13 @@
         <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="D135" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E135" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5605,13 +5608,13 @@
         <v>464</v>
       </c>
       <c r="C136" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D136" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E136" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5622,13 +5625,13 @@
         <v>464</v>
       </c>
       <c r="C137" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D137" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E137" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5639,13 +5642,13 @@
         <v>464</v>
       </c>
       <c r="C138" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D138" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E138" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5656,13 +5659,13 @@
         <v>464</v>
       </c>
       <c r="C139" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D139" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E139" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5673,13 +5676,13 @@
         <v>464</v>
       </c>
       <c r="C140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D140" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E140" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5690,13 +5693,13 @@
         <v>464</v>
       </c>
       <c r="C141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D141" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E141" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5707,13 +5710,13 @@
         <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D142" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E142" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5724,13 +5727,13 @@
         <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D143" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E143" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5741,13 +5744,13 @@
         <v>464</v>
       </c>
       <c r="C144" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D144" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E144" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5758,13 +5761,13 @@
         <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D145" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E145" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5775,13 +5778,13 @@
         <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D146" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E146" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5792,13 +5795,13 @@
         <v>464</v>
       </c>
       <c r="C147" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D147" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E147" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5809,13 +5812,13 @@
         <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D148" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E148" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5826,13 +5829,13 @@
         <v>465</v>
       </c>
       <c r="C149" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D149" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E149" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5843,13 +5846,13 @@
         <v>465</v>
       </c>
       <c r="C150" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D150" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E150" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5860,13 +5863,13 @@
         <v>465</v>
       </c>
       <c r="C151" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D151" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E151" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5877,13 +5880,13 @@
         <v>466</v>
       </c>
       <c r="C152" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D152" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E152" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5894,13 +5897,13 @@
         <v>465</v>
       </c>
       <c r="C153" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D153" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E153" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5911,13 +5914,13 @@
         <v>465</v>
       </c>
       <c r="C154" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D154" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E154" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5928,13 +5931,13 @@
         <v>465</v>
       </c>
       <c r="C155" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D155" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E155" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5945,13 +5948,13 @@
         <v>465</v>
       </c>
       <c r="C156" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D156" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E156" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5962,13 +5965,13 @@
         <v>465</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D157" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E157" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5979,13 +5982,13 @@
         <v>465</v>
       </c>
       <c r="C158" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D158" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E158" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5996,13 +5999,13 @@
         <v>465</v>
       </c>
       <c r="C159" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D159" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E159" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6013,13 +6016,13 @@
         <v>465</v>
       </c>
       <c r="C160" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D160" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E160" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6030,13 +6033,13 @@
         <v>465</v>
       </c>
       <c r="C161" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D161" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E161" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6047,13 +6050,13 @@
         <v>465</v>
       </c>
       <c r="C162" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D162" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E162" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6064,13 +6067,13 @@
         <v>465</v>
       </c>
       <c r="C163" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D163" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E163" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6081,13 +6084,13 @@
         <v>465</v>
       </c>
       <c r="C164" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D164" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E164" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6098,13 +6101,13 @@
         <v>465</v>
       </c>
       <c r="C165" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D165" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E165" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6115,13 +6118,13 @@
         <v>465</v>
       </c>
       <c r="C166" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D166" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E166" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6132,13 +6135,13 @@
         <v>465</v>
       </c>
       <c r="C167" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D167" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E167" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6149,13 +6152,13 @@
         <v>465</v>
       </c>
       <c r="C168" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D168" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E168" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6166,13 +6169,13 @@
         <v>465</v>
       </c>
       <c r="C169" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D169" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E169" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6183,13 +6186,13 @@
         <v>465</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D170" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E170" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6200,13 +6203,13 @@
         <v>465</v>
       </c>
       <c r="C171" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D171" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E171" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6217,13 +6220,13 @@
         <v>465</v>
       </c>
       <c r="C172" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D172" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E172" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6234,13 +6237,13 @@
         <v>465</v>
       </c>
       <c r="C173" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D173" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E173" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6251,13 +6254,13 @@
         <v>465</v>
       </c>
       <c r="C174" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D174" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E174" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6268,13 +6271,13 @@
         <v>465</v>
       </c>
       <c r="C175" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E175" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6285,13 +6288,13 @@
         <v>465</v>
       </c>
       <c r="C176" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D176" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E176" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6302,13 +6305,13 @@
         <v>465</v>
       </c>
       <c r="C177" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D177" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E177" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6319,13 +6322,13 @@
         <v>465</v>
       </c>
       <c r="C178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D178" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E178" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6336,13 +6339,13 @@
         <v>465</v>
       </c>
       <c r="C179" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D179" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E179" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6353,13 +6356,13 @@
         <v>465</v>
       </c>
       <c r="C180" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D180" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E180" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6370,13 +6373,13 @@
         <v>465</v>
       </c>
       <c r="C181" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D181" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E181" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6387,13 +6390,13 @@
         <v>465</v>
       </c>
       <c r="C182" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D182" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E182" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6404,13 +6407,13 @@
         <v>465</v>
       </c>
       <c r="C183" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D183" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E183" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6421,13 +6424,13 @@
         <v>465</v>
       </c>
       <c r="C184" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D184" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E184" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6438,13 +6441,13 @@
         <v>465</v>
       </c>
       <c r="C185" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D185" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E185" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6455,13 +6458,13 @@
         <v>465</v>
       </c>
       <c r="C186" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D186" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E186" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6472,13 +6475,13 @@
         <v>465</v>
       </c>
       <c r="C187" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D187" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E187" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6489,13 +6492,13 @@
         <v>465</v>
       </c>
       <c r="C188" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D188" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E188" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6506,13 +6509,13 @@
         <v>465</v>
       </c>
       <c r="C189" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D189" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E189" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6523,13 +6526,13 @@
         <v>465</v>
       </c>
       <c r="C190" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D190" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E190" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6540,13 +6543,13 @@
         <v>465</v>
       </c>
       <c r="C191" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D191" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E191" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6557,13 +6560,13 @@
         <v>465</v>
       </c>
       <c r="C192" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D192" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E192" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6574,13 +6577,13 @@
         <v>466</v>
       </c>
       <c r="C193" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D193" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E193" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6591,13 +6594,13 @@
         <v>465</v>
       </c>
       <c r="C194" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D194" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E194" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6608,13 +6611,13 @@
         <v>465</v>
       </c>
       <c r="C195" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D195" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E195" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6625,13 +6628,13 @@
         <v>465</v>
       </c>
       <c r="C196" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D196" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E196" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6642,13 +6645,13 @@
         <v>465</v>
       </c>
       <c r="C197" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D197" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E197" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6659,13 +6662,13 @@
         <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D198" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E198" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6676,13 +6679,13 @@
         <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D199" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E199" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6693,13 +6696,13 @@
         <v>465</v>
       </c>
       <c r="C200" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D200" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E200" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6710,13 +6713,13 @@
         <v>466</v>
       </c>
       <c r="C201" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D201" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E201" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6727,13 +6730,13 @@
         <v>465</v>
       </c>
       <c r="C202" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D202" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E202" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6744,13 +6747,13 @@
         <v>465</v>
       </c>
       <c r="C203" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D203" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E203" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6761,13 +6764,13 @@
         <v>466</v>
       </c>
       <c r="C204" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D204" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E204" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6778,13 +6781,13 @@
         <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D205" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E205" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6795,13 +6798,13 @@
         <v>465</v>
       </c>
       <c r="C206" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D206" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E206" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6812,13 +6815,13 @@
         <v>465</v>
       </c>
       <c r="C207" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D207" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E207" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6829,13 +6832,13 @@
         <v>465</v>
       </c>
       <c r="C208" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D208" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E208" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6846,13 +6849,13 @@
         <v>465</v>
       </c>
       <c r="C209" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D209" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E209" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6863,13 +6866,13 @@
         <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D210" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E210" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6880,13 +6883,13 @@
         <v>465</v>
       </c>
       <c r="C211" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D211" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E211" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6897,13 +6900,13 @@
         <v>465</v>
       </c>
       <c r="C212" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D212" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E212" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6914,13 +6917,13 @@
         <v>464</v>
       </c>
       <c r="C213" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D213" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E213" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6931,13 +6934,13 @@
         <v>464</v>
       </c>
       <c r="C214" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D214" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E214" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6948,13 +6951,13 @@
         <v>465</v>
       </c>
       <c r="C215" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D215" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E215" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6965,13 +6968,13 @@
         <v>465</v>
       </c>
       <c r="C216" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D216" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E216" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6982,13 +6985,13 @@
         <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D217" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E217" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6999,13 +7002,13 @@
         <v>465</v>
       </c>
       <c r="C218" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D218" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E218" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7016,13 +7019,13 @@
         <v>465</v>
       </c>
       <c r="C219" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D219" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E219" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7033,13 +7036,13 @@
         <v>465</v>
       </c>
       <c r="C220" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D220" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E220" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7050,13 +7053,13 @@
         <v>465</v>
       </c>
       <c r="C221" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D221" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E221" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7067,13 +7070,13 @@
         <v>465</v>
       </c>
       <c r="C222" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D222" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E222" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7084,13 +7087,13 @@
         <v>465</v>
       </c>
       <c r="C223" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D223" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E223" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7101,13 +7104,13 @@
         <v>465</v>
       </c>
       <c r="C224" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D224" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E224" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7118,13 +7121,13 @@
         <v>465</v>
       </c>
       <c r="C225" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D225" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E225" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7135,13 +7138,13 @@
         <v>465</v>
       </c>
       <c r="C226" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D226" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E226" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7152,13 +7155,13 @@
         <v>465</v>
       </c>
       <c r="C227" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D227" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E227" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7169,13 +7172,13 @@
         <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D228" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7186,13 +7189,13 @@
         <v>465</v>
       </c>
       <c r="C229" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D229" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E229" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7203,13 +7206,13 @@
         <v>466</v>
       </c>
       <c r="C230" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D230" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E230" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7220,13 +7223,13 @@
         <v>465</v>
       </c>
       <c r="C231" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D231" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E231" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7237,13 +7240,13 @@
         <v>465</v>
       </c>
       <c r="C232" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D232" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E232" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7254,13 +7257,13 @@
         <v>465</v>
       </c>
       <c r="C233" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D233" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E233" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7271,13 +7274,13 @@
         <v>467</v>
       </c>
       <c r="C234" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D234" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E234" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7288,13 +7291,13 @@
         <v>467</v>
       </c>
       <c r="C235" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D235" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E235" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7305,13 +7308,13 @@
         <v>467</v>
       </c>
       <c r="C236" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D236" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E236" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7322,13 +7325,13 @@
         <v>466</v>
       </c>
       <c r="C237" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D237" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E237" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7339,13 +7342,13 @@
         <v>466</v>
       </c>
       <c r="C238" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D238" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E238" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7356,13 +7359,13 @@
         <v>465</v>
       </c>
       <c r="C239" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D239" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E239" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7373,13 +7376,13 @@
         <v>467</v>
       </c>
       <c r="C240" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D240" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E240" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7390,13 +7393,13 @@
         <v>467</v>
       </c>
       <c r="C241" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D241" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E241" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7407,13 +7410,13 @@
         <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D242" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E242" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7424,13 +7427,13 @@
         <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D243" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E243" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7441,13 +7444,13 @@
         <v>467</v>
       </c>
       <c r="C244" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D244" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E244" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7458,13 +7461,13 @@
         <v>467</v>
       </c>
       <c r="C245" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D245" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E245" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7475,13 +7478,13 @@
         <v>467</v>
       </c>
       <c r="C246" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D246" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E246" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7492,13 +7495,13 @@
         <v>467</v>
       </c>
       <c r="C247" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D247" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E247" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7509,13 +7512,13 @@
         <v>467</v>
       </c>
       <c r="C248" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D248" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E248" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7526,13 +7529,13 @@
         <v>464</v>
       </c>
       <c r="C249" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D249" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E249" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7543,13 +7546,13 @@
         <v>464</v>
       </c>
       <c r="C250" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D250" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E250" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7560,13 +7563,13 @@
         <v>464</v>
       </c>
       <c r="C251" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D251" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E251" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7577,13 +7580,13 @@
         <v>464</v>
       </c>
       <c r="C252" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D252" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E252" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7594,13 +7597,13 @@
         <v>464</v>
       </c>
       <c r="C253" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D253" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E253" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7611,13 +7614,13 @@
         <v>464</v>
       </c>
       <c r="C254" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D254" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E254" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7628,13 +7631,13 @@
         <v>464</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D255" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E255" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7645,13 +7648,13 @@
         <v>464</v>
       </c>
       <c r="C256" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D256" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E256" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7662,13 +7665,13 @@
         <v>464</v>
       </c>
       <c r="C257" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D257" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E257" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7679,13 +7682,13 @@
         <v>464</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D258" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E258" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7696,13 +7699,13 @@
         <v>465</v>
       </c>
       <c r="C259" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D259" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E259" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7713,13 +7716,13 @@
         <v>466</v>
       </c>
       <c r="C260" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D260" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E260" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7730,13 +7733,13 @@
         <v>465</v>
       </c>
       <c r="C261" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D261" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E261" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7747,13 +7750,13 @@
         <v>465</v>
       </c>
       <c r="C262" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D262" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E262" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7764,13 +7767,13 @@
         <v>467</v>
       </c>
       <c r="C263" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D263" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E263" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7781,13 +7784,13 @@
         <v>467</v>
       </c>
       <c r="C264" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D264" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E264" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7798,13 +7801,13 @@
         <v>467</v>
       </c>
       <c r="C265" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D265" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E265" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7815,13 +7818,13 @@
         <v>467</v>
       </c>
       <c r="C266" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D266" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E266" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7832,13 +7835,13 @@
         <v>467</v>
       </c>
       <c r="C267" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D267" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E267" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7849,13 +7852,13 @@
         <v>467</v>
       </c>
       <c r="C268" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D268" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E268" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7866,13 +7869,13 @@
         <v>464</v>
       </c>
       <c r="C269" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D269" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E269" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7883,13 +7886,13 @@
         <v>464</v>
       </c>
       <c r="C270" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D270" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E270" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7900,13 +7903,13 @@
         <v>464</v>
       </c>
       <c r="C271" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D271" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E271" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7917,13 +7920,13 @@
         <v>464</v>
       </c>
       <c r="C272" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D272" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E272" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7934,13 +7937,13 @@
         <v>464</v>
       </c>
       <c r="C273" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D273" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E273" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7951,13 +7954,13 @@
         <v>464</v>
       </c>
       <c r="C274" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D274" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E274" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7968,13 +7971,13 @@
         <v>468</v>
       </c>
       <c r="C275" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D275" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E275" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7985,13 +7988,13 @@
         <v>468</v>
       </c>
       <c r="C276" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D276" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E276" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8002,13 +8005,13 @@
         <v>468</v>
       </c>
       <c r="C277" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D277" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E277" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8019,13 +8022,13 @@
         <v>468</v>
       </c>
       <c r="C278" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D278" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E278" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8036,13 +8039,13 @@
         <v>468</v>
       </c>
       <c r="C279" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D279" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E279" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8053,13 +8056,13 @@
         <v>468</v>
       </c>
       <c r="C280" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D280" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E280" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8073,10 +8076,10 @@
         <v>753</v>
       </c>
       <c r="D281" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E281" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8090,10 +8093,10 @@
         <v>754</v>
       </c>
       <c r="D282" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E282" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8107,10 +8110,10 @@
         <v>755</v>
       </c>
       <c r="D283" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E283" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8124,10 +8127,10 @@
         <v>756</v>
       </c>
       <c r="D284" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E284" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8141,10 +8144,10 @@
         <v>757</v>
       </c>
       <c r="D285" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E285" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8158,10 +8161,10 @@
         <v>758</v>
       </c>
       <c r="D286" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E286" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8175,10 +8178,10 @@
         <v>759</v>
       </c>
       <c r="D287" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E287" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8195,7 +8198,7 @@
         <v>469</v>
       </c>
       <c r="E288" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8212,7 +8215,7 @@
         <v>469</v>
       </c>
       <c r="E289" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8229,7 +8232,7 @@
         <v>469</v>
       </c>
       <c r="E290" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8246,7 +8249,7 @@
         <v>469</v>
       </c>
       <c r="E291" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8263,7 +8266,7 @@
         <v>469</v>
       </c>
       <c r="E292" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8280,7 +8283,7 @@
         <v>469</v>
       </c>
       <c r="E293" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8294,10 +8297,10 @@
         <v>766</v>
       </c>
       <c r="D294" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E294" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8311,10 +8314,10 @@
         <v>767</v>
       </c>
       <c r="D295" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E295" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8328,10 +8331,10 @@
         <v>768</v>
       </c>
       <c r="D296" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E296" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8345,10 +8348,10 @@
         <v>769</v>
       </c>
       <c r="D297" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E297" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8362,10 +8365,10 @@
         <v>770</v>
       </c>
       <c r="D298" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E298" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8379,10 +8382,10 @@
         <v>771</v>
       </c>
       <c r="D299" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E299" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8396,10 +8399,10 @@
         <v>772</v>
       </c>
       <c r="D300" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E300" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8413,10 +8416,10 @@
         <v>773</v>
       </c>
       <c r="D301" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E301" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8430,10 +8433,10 @@
         <v>774</v>
       </c>
       <c r="D302" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E302" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8447,10 +8450,10 @@
         <v>775</v>
       </c>
       <c r="D303" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E303" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8464,10 +8467,10 @@
         <v>776</v>
       </c>
       <c r="D304" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E304" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8481,10 +8484,10 @@
         <v>777</v>
       </c>
       <c r="D305" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E305" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8498,10 +8501,10 @@
         <v>778</v>
       </c>
       <c r="D306" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E306" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8515,10 +8518,10 @@
         <v>779</v>
       </c>
       <c r="D307" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E307" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8532,10 +8535,10 @@
         <v>780</v>
       </c>
       <c r="D308" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E308" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8549,10 +8552,10 @@
         <v>781</v>
       </c>
       <c r="D309" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E309" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8566,10 +8569,10 @@
         <v>782</v>
       </c>
       <c r="D310" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E310" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8580,13 +8583,13 @@
         <v>468</v>
       </c>
       <c r="C311" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D311" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E311" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8597,13 +8600,13 @@
         <v>468</v>
       </c>
       <c r="C312" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D312" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E312" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8614,13 +8617,13 @@
         <v>468</v>
       </c>
       <c r="C313" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D313" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E313" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8631,13 +8634,13 @@
         <v>465</v>
       </c>
       <c r="C314" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D314" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E314" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8648,13 +8651,13 @@
         <v>471</v>
       </c>
       <c r="C315" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D315" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E315" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8665,13 +8668,13 @@
         <v>471</v>
       </c>
       <c r="C316" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D316" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E316" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8682,13 +8685,13 @@
         <v>471</v>
       </c>
       <c r="C317" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D317" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E317" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8699,13 +8702,13 @@
         <v>471</v>
       </c>
       <c r="C318" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D318" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E318" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8716,13 +8719,13 @@
         <v>471</v>
       </c>
       <c r="C319" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D319" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E319" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8733,13 +8736,13 @@
         <v>471</v>
       </c>
       <c r="C320" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D320" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E320" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8750,13 +8753,13 @@
         <v>471</v>
       </c>
       <c r="C321" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D321" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E321" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8767,13 +8770,13 @@
         <v>471</v>
       </c>
       <c r="C322" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D322" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E322" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8784,13 +8787,13 @@
         <v>471</v>
       </c>
       <c r="C323" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D323" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E323" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8801,13 +8804,13 @@
         <v>471</v>
       </c>
       <c r="C324" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D324" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E324" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8818,13 +8821,13 @@
         <v>471</v>
       </c>
       <c r="C325" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D325" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E325" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8835,13 +8838,13 @@
         <v>464</v>
       </c>
       <c r="C326" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D326" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E326" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8852,13 +8855,13 @@
         <v>464</v>
       </c>
       <c r="C327" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D327" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E327" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8869,13 +8872,13 @@
         <v>464</v>
       </c>
       <c r="C328" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D328" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E328" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8886,13 +8889,13 @@
         <v>464</v>
       </c>
       <c r="C329" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D329" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E329" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8903,13 +8906,13 @@
         <v>464</v>
       </c>
       <c r="C330" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D330" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E330" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8920,13 +8923,13 @@
         <v>464</v>
       </c>
       <c r="C331" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D331" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E331" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8937,13 +8940,13 @@
         <v>471</v>
       </c>
       <c r="C332" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D332" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E332" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8954,13 +8957,13 @@
         <v>471</v>
       </c>
       <c r="C333" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D333" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E333" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8971,13 +8974,13 @@
         <v>471</v>
       </c>
       <c r="C334" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D334" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E334" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8988,13 +8991,13 @@
         <v>471</v>
       </c>
       <c r="C335" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D335" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E335" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9005,13 +9008,13 @@
         <v>471</v>
       </c>
       <c r="C336" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D336" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E336" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9022,13 +9025,13 @@
         <v>464</v>
       </c>
       <c r="C337" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D337" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E337" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9039,13 +9042,13 @@
         <v>464</v>
       </c>
       <c r="C338" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D338" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E338" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9056,13 +9059,13 @@
         <v>464</v>
       </c>
       <c r="C339" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D339" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E339" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9073,13 +9076,13 @@
         <v>464</v>
       </c>
       <c r="C340" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D340" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E340" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9090,13 +9093,13 @@
         <v>464</v>
       </c>
       <c r="C341" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D341" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E341" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9107,13 +9110,13 @@
         <v>464</v>
       </c>
       <c r="C342" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D342" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E342" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9124,13 +9127,13 @@
         <v>464</v>
       </c>
       <c r="C343" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D343" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E343" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9141,13 +9144,13 @@
         <v>464</v>
       </c>
       <c r="C344" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D344" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E344" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9158,13 +9161,13 @@
         <v>464</v>
       </c>
       <c r="C345" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D345" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E345" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9175,13 +9178,13 @@
         <v>465</v>
       </c>
       <c r="C346" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D346" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E346" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9192,13 +9195,13 @@
         <v>469</v>
       </c>
       <c r="C347" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D347" t="s">
         <v>469</v>
       </c>
       <c r="E347" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9209,13 +9212,13 @@
         <v>469</v>
       </c>
       <c r="C348" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D348" t="s">
         <v>469</v>
       </c>
       <c r="E348" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9226,13 +9229,13 @@
         <v>469</v>
       </c>
       <c r="C349" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D349" t="s">
         <v>469</v>
       </c>
       <c r="E349" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9243,13 +9246,13 @@
         <v>469</v>
       </c>
       <c r="C350" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D350" t="s">
         <v>469</v>
       </c>
       <c r="E350" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9260,13 +9263,13 @@
         <v>469</v>
       </c>
       <c r="C351" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D351" t="s">
         <v>469</v>
       </c>
       <c r="E351" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9277,13 +9280,13 @@
         <v>469</v>
       </c>
       <c r="C352" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D352" t="s">
         <v>469</v>
       </c>
       <c r="E352" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9294,13 +9297,13 @@
         <v>469</v>
       </c>
       <c r="C353" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D353" t="s">
         <v>469</v>
       </c>
       <c r="E353" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9311,13 +9314,13 @@
         <v>469</v>
       </c>
       <c r="C354" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D354" t="s">
         <v>469</v>
       </c>
       <c r="E354" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9328,13 +9331,13 @@
         <v>469</v>
       </c>
       <c r="C355" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D355" t="s">
         <v>469</v>
       </c>
       <c r="E355" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9345,13 +9348,13 @@
         <v>469</v>
       </c>
       <c r="C356" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D356" t="s">
         <v>469</v>
       </c>
       <c r="E356" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9362,13 +9365,13 @@
         <v>464</v>
       </c>
       <c r="C357" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D357" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E357" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9379,13 +9382,13 @@
         <v>464</v>
       </c>
       <c r="C358" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D358" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E358" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9396,13 +9399,13 @@
         <v>464</v>
       </c>
       <c r="C359" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D359" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E359" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9413,13 +9416,13 @@
         <v>464</v>
       </c>
       <c r="C360" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D360" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E360" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9430,13 +9433,13 @@
         <v>471</v>
       </c>
       <c r="C361" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D361" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E361" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9447,13 +9450,13 @@
         <v>471</v>
       </c>
       <c r="C362" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D362" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E362" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9464,13 +9467,13 @@
         <v>471</v>
       </c>
       <c r="C363" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D363" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E363" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9481,13 +9484,13 @@
         <v>471</v>
       </c>
       <c r="C364" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D364" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E364" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9498,13 +9501,13 @@
         <v>464</v>
       </c>
       <c r="C365" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D365" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E365" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9515,13 +9518,13 @@
         <v>464</v>
       </c>
       <c r="C366" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D366" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E366" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9532,13 +9535,13 @@
         <v>464</v>
       </c>
       <c r="C367" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D367" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E367" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9549,13 +9552,13 @@
         <v>464</v>
       </c>
       <c r="C368" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D368" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E368" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9566,13 +9569,13 @@
         <v>465</v>
       </c>
       <c r="C369" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D369" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E369" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9583,13 +9586,13 @@
         <v>472</v>
       </c>
       <c r="C370" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D370" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E370" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9600,13 +9603,13 @@
         <v>472</v>
       </c>
       <c r="C371" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D371" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E371" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9617,13 +9620,13 @@
         <v>472</v>
       </c>
       <c r="C372" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D372" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E372" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9634,13 +9637,13 @@
         <v>472</v>
       </c>
       <c r="C373" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D373" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E373" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9651,13 +9654,13 @@
         <v>472</v>
       </c>
       <c r="C374" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D374" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E374" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9668,13 +9671,13 @@
         <v>465</v>
       </c>
       <c r="C375" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D375" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E375" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9685,13 +9688,13 @@
         <v>472</v>
       </c>
       <c r="C376" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D376" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E376" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9702,13 +9705,13 @@
         <v>472</v>
       </c>
       <c r="C377" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D377" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E377" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9719,13 +9722,13 @@
         <v>472</v>
       </c>
       <c r="C378" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D378" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E378" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9736,13 +9739,13 @@
         <v>473</v>
       </c>
       <c r="C379" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D379" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E379" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9753,13 +9756,13 @@
         <v>473</v>
       </c>
       <c r="C380" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D380" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E380" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9770,13 +9773,13 @@
         <v>473</v>
       </c>
       <c r="C381" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D381" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E381" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9787,13 +9790,13 @@
         <v>473</v>
       </c>
       <c r="C382" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D382" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E382" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9804,13 +9807,13 @@
         <v>473</v>
       </c>
       <c r="C383" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D383" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E383" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9821,13 +9824,13 @@
         <v>473</v>
       </c>
       <c r="C384" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D384" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E384" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9838,13 +9841,13 @@
         <v>473</v>
       </c>
       <c r="C385" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D385" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E385" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9855,13 +9858,13 @@
         <v>473</v>
       </c>
       <c r="C386" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D386" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E386" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9872,13 +9875,13 @@
         <v>473</v>
       </c>
       <c r="C387" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D387" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E387" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9889,13 +9892,13 @@
         <v>473</v>
       </c>
       <c r="C388" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D388" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E388" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9906,13 +9909,13 @@
         <v>473</v>
       </c>
       <c r="C389" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D389" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E389" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9923,13 +9926,13 @@
         <v>473</v>
       </c>
       <c r="C390" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D390" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E390" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9940,13 +9943,13 @@
         <v>473</v>
       </c>
       <c r="C391" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D391" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E391" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9957,13 +9960,13 @@
         <v>473</v>
       </c>
       <c r="C392" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D392" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E392" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9977,10 +9980,10 @@
         <v>480</v>
       </c>
       <c r="D393" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E393" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9991,13 +9994,13 @@
         <v>473</v>
       </c>
       <c r="C394" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D394" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E394" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10008,13 +10011,13 @@
         <v>473</v>
       </c>
       <c r="C395" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D395" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E395" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10025,13 +10028,13 @@
         <v>473</v>
       </c>
       <c r="C396" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D396" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E396" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10042,13 +10045,13 @@
         <v>473</v>
       </c>
       <c r="C397" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D397" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E397" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10059,13 +10062,13 @@
         <v>473</v>
       </c>
       <c r="C398" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D398" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E398" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10076,13 +10079,13 @@
         <v>473</v>
       </c>
       <c r="C399" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D399" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E399" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10093,13 +10096,13 @@
         <v>473</v>
       </c>
       <c r="C400" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D400" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E400" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10110,13 +10113,13 @@
         <v>473</v>
       </c>
       <c r="C401" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D401" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E401" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10127,13 +10130,13 @@
         <v>473</v>
       </c>
       <c r="C402" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D402" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E402" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10144,13 +10147,13 @@
         <v>473</v>
       </c>
       <c r="C403" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D403" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E403" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10161,13 +10164,13 @@
         <v>473</v>
       </c>
       <c r="C404" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D404" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E404" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10178,13 +10181,13 @@
         <v>473</v>
       </c>
       <c r="C405" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D405" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E405" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10195,13 +10198,13 @@
         <v>473</v>
       </c>
       <c r="C406" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D406" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E406" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10212,13 +10215,13 @@
         <v>464</v>
       </c>
       <c r="C407" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D407" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E407" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10229,13 +10232,13 @@
         <v>464</v>
       </c>
       <c r="C408" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D408" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E408" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10246,13 +10249,13 @@
         <v>474</v>
       </c>
       <c r="C409" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D409" t="s">
         <v>474</v>
       </c>
       <c r="E409" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10263,13 +10266,13 @@
         <v>474</v>
       </c>
       <c r="C410" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D410" t="s">
         <v>474</v>
       </c>
       <c r="E410" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10280,13 +10283,13 @@
         <v>474</v>
       </c>
       <c r="C411" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D411" t="s">
         <v>474</v>
       </c>
       <c r="E411" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10297,13 +10300,13 @@
         <v>474</v>
       </c>
       <c r="C412" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D412" t="s">
         <v>474</v>
       </c>
       <c r="E412" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10314,13 +10317,13 @@
         <v>474</v>
       </c>
       <c r="C413" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D413" t="s">
         <v>474</v>
       </c>
       <c r="E413" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10331,13 +10334,13 @@
         <v>474</v>
       </c>
       <c r="C414" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D414" t="s">
         <v>474</v>
       </c>
       <c r="E414" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10348,13 +10351,13 @@
         <v>474</v>
       </c>
       <c r="C415" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D415" t="s">
         <v>474</v>
       </c>
       <c r="E415" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10365,13 +10368,13 @@
         <v>474</v>
       </c>
       <c r="C416" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D416" t="s">
         <v>474</v>
       </c>
       <c r="E416" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10382,13 +10385,13 @@
         <v>474</v>
       </c>
       <c r="C417" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D417" t="s">
         <v>474</v>
       </c>
       <c r="E417" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10399,13 +10402,13 @@
         <v>474</v>
       </c>
       <c r="C418" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D418" t="s">
         <v>474</v>
       </c>
       <c r="E418" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10416,13 +10419,13 @@
         <v>474</v>
       </c>
       <c r="C419" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D419" t="s">
         <v>474</v>
       </c>
       <c r="E419" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10433,13 +10436,13 @@
         <v>473</v>
       </c>
       <c r="C420" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D420" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E420" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10450,13 +10453,13 @@
         <v>473</v>
       </c>
       <c r="C421" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D421" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E421" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10467,13 +10470,13 @@
         <v>475</v>
       </c>
       <c r="C422" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D422" t="s">
         <v>475</v>
       </c>
       <c r="E422" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10484,13 +10487,13 @@
         <v>475</v>
       </c>
       <c r="C423" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D423" t="s">
         <v>475</v>
       </c>
       <c r="E423" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10501,13 +10504,13 @@
         <v>475</v>
       </c>
       <c r="C424" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D424" t="s">
         <v>475</v>
       </c>
       <c r="E424" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10518,13 +10521,13 @@
         <v>475</v>
       </c>
       <c r="C425" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D425" t="s">
         <v>475</v>
       </c>
       <c r="E425" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10535,13 +10538,13 @@
         <v>475</v>
       </c>
       <c r="C426" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D426" t="s">
         <v>475</v>
       </c>
       <c r="E426" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10552,13 +10555,13 @@
         <v>475</v>
       </c>
       <c r="C427" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D427" t="s">
         <v>475</v>
       </c>
       <c r="E427" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10569,13 +10572,13 @@
         <v>475</v>
       </c>
       <c r="C428" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D428" t="s">
         <v>475</v>
       </c>
       <c r="E428" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10586,13 +10589,13 @@
         <v>475</v>
       </c>
       <c r="C429" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D429" t="s">
         <v>475</v>
       </c>
       <c r="E429" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10603,13 +10606,13 @@
         <v>475</v>
       </c>
       <c r="C430" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D430" t="s">
         <v>475</v>
       </c>
       <c r="E430" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10620,13 +10623,13 @@
         <v>473</v>
       </c>
       <c r="C431" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D431" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E431" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10637,13 +10640,13 @@
         <v>473</v>
       </c>
       <c r="C432" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D432" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E432" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10654,13 +10657,13 @@
         <v>473</v>
       </c>
       <c r="C433" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D433" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E433" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10671,13 +10674,13 @@
         <v>473</v>
       </c>
       <c r="C434" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D434" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E434" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10688,13 +10691,13 @@
         <v>473</v>
       </c>
       <c r="C435" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D435" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E435" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10705,13 +10708,13 @@
         <v>473</v>
       </c>
       <c r="C436" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D436" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E436" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10722,13 +10725,13 @@
         <v>473</v>
       </c>
       <c r="C437" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D437" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E437" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10739,13 +10742,13 @@
         <v>473</v>
       </c>
       <c r="C438" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D438" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E438" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10756,13 +10759,13 @@
         <v>473</v>
       </c>
       <c r="C439" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D439" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E439" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10773,13 +10776,13 @@
         <v>473</v>
       </c>
       <c r="C440" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D440" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E440" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10790,13 +10793,13 @@
         <v>473</v>
       </c>
       <c r="C441" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D441" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E441" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10807,13 +10810,13 @@
         <v>473</v>
       </c>
       <c r="C442" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D442" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E442" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10824,13 +10827,13 @@
         <v>469</v>
       </c>
       <c r="C443" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D443" t="s">
         <v>469</v>
       </c>
       <c r="E443" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10841,13 +10844,13 @@
         <v>469</v>
       </c>
       <c r="C444" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D444" t="s">
         <v>469</v>
       </c>
       <c r="E444" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10858,13 +10861,13 @@
         <v>469</v>
       </c>
       <c r="C445" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D445" t="s">
         <v>469</v>
       </c>
       <c r="E445" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10875,13 +10878,13 @@
         <v>469</v>
       </c>
       <c r="C446" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D446" t="s">
         <v>469</v>
       </c>
       <c r="E446" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10892,13 +10895,13 @@
         <v>469</v>
       </c>
       <c r="C447" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D447" t="s">
         <v>469</v>
       </c>
       <c r="E447" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10909,13 +10912,13 @@
         <v>469</v>
       </c>
       <c r="C448" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D448" t="s">
         <v>469</v>
       </c>
       <c r="E448" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10926,13 +10929,13 @@
         <v>469</v>
       </c>
       <c r="C449" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D449" t="s">
         <v>469</v>
       </c>
       <c r="E449" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10943,13 +10946,13 @@
         <v>469</v>
       </c>
       <c r="C450" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D450" t="s">
         <v>469</v>
       </c>
       <c r="E450" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10960,13 +10963,13 @@
         <v>469</v>
       </c>
       <c r="C451" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D451" t="s">
         <v>469</v>
       </c>
       <c r="E451" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10977,13 +10980,13 @@
         <v>473</v>
       </c>
       <c r="C452" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D452" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E452" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10994,13 +10997,13 @@
         <v>473</v>
       </c>
       <c r="C453" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D453" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E453" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11011,13 +11014,13 @@
         <v>473</v>
       </c>
       <c r="C454" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D454" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E454" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11028,13 +11031,13 @@
         <v>473</v>
       </c>
       <c r="C455" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D455" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E455" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11045,13 +11048,13 @@
         <v>473</v>
       </c>
       <c r="C456" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D456" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E456" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11062,13 +11065,13 @@
         <v>473</v>
       </c>
       <c r="C457" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D457" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E457" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11079,13 +11082,13 @@
         <v>473</v>
       </c>
       <c r="C458" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D458" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E458" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11096,13 +11099,13 @@
         <v>473</v>
       </c>
       <c r="C459" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D459" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E459" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11113,13 +11116,13 @@
         <v>473</v>
       </c>
       <c r="C460" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D460" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E460" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -37,396 +37,396 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -481,135 +481,135 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -640,30 +640,30 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -673,6 +673,9 @@
     <t>samāpajjati 2</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>chindati 1</t>
   </si>
   <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -760,18 +760,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -781,6 +781,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -799,9 +802,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -820,12 +820,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -862,6 +862,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -880,9 +883,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -943,6 +943,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -952,21 +955,18 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1048,27 +1048,30 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -1081,33 +1084,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1126,12 +1126,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -1174,6 +1174,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1213,12 +1219,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -1261,30 +1261,30 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -1357,30 +1357,30 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -1450,396 +1450,396 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1891,135 +1891,135 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -2050,27 +2050,27 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -2080,6 +2080,9 @@
     <t>engages (in); practices; performs</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -2110,9 +2113,6 @@
     <t>cuts off; severs</t>
   </si>
   <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -2167,18 +2167,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -2188,6 +2188,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -2206,9 +2209,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2227,12 +2227,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2269,6 +2269,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -2287,9 +2290,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -2350,6 +2350,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -2359,21 +2362,18 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -2455,27 +2455,30 @@
     <t>master; teacher</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -2488,33 +2491,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -2533,12 +2533,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -2581,6 +2581,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
   </si>
   <si>
@@ -2617,12 +2623,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -2665,27 +2665,27 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -2758,25 +2758,25 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
   </si>
   <si>
     <t>state; property; condition; element</t>
@@ -5591,7 +5591,7 @@
         <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D135" t="s">
         <v>930</v>
@@ -5877,7 +5877,7 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C152" t="s">
         <v>625</v>
@@ -6013,7 +6013,7 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
         <v>633</v>
@@ -9977,7 +9977,7 @@
         <v>473</v>
       </c>
       <c r="C393" t="s">
-        <v>480</v>
+        <v>865</v>
       </c>
       <c r="D393" t="s">
         <v>964</v>
@@ -9994,7 +9994,7 @@
         <v>473</v>
       </c>
       <c r="C394" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D394" t="s">
         <v>964</v>
@@ -10011,7 +10011,7 @@
         <v>473</v>
       </c>
       <c r="C395" t="s">
-        <v>866</v>
+        <v>479</v>
       </c>
       <c r="D395" t="s">
         <v>964</v>
@@ -10385,7 +10385,7 @@
         <v>474</v>
       </c>
       <c r="C417" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D417" t="s">
         <v>474</v>
@@ -10402,7 +10402,7 @@
         <v>474</v>
       </c>
       <c r="C418" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D418" t="s">
         <v>474</v>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -34,237 +34,279 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -283,12 +325,6 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -301,15 +337,9 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -349,15 +379,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -367,36 +391,18 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -424,9 +430,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -481,6 +481,9 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -496,72 +499,69 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -676,39 +676,45 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -718,15 +724,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -817,15 +817,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -835,15 +835,15 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -1036,12 +1036,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -1081,15 +1081,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1180,6 +1180,9 @@
     <t>kathā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1210,9 +1213,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -1396,6 +1396,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -1405,9 +1408,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
@@ -1447,237 +1447,279 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -1696,12 +1738,6 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -1714,15 +1750,9 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -1762,15 +1792,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -1780,36 +1804,18 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -1837,18 +1843,12 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
     <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -1891,6 +1891,9 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -1906,72 +1909,69 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -2083,39 +2083,45 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -2125,15 +2131,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -2224,15 +2224,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2242,15 +2242,15 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -2443,12 +2443,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -2488,15 +2488,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -2650,12 +2650,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -2794,6 +2794,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -2801,9 +2804,6 @@
   </si>
   <si>
     <t>name of a city; modern Varanasi</t>
-  </si>
-  <si>
-    <t>nun; fully ordained nun</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -5591,7 +5591,7 @@
         <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>496</v>
+        <v>609</v>
       </c>
       <c r="D135" t="s">
         <v>930</v>
@@ -5608,7 +5608,7 @@
         <v>464</v>
       </c>
       <c r="C136" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="D136" t="s">
         <v>930</v>
@@ -7203,7 +7203,7 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C230" t="s">
         <v>702</v>
@@ -7237,7 +7237,7 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C232" t="s">
         <v>704</v>
@@ -9841,7 +9841,7 @@
         <v>473</v>
       </c>
       <c r="C385" t="s">
-        <v>857</v>
+        <v>556</v>
       </c>
       <c r="D385" t="s">
         <v>964</v>
@@ -9858,7 +9858,7 @@
         <v>473</v>
       </c>
       <c r="C386" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D386" t="s">
         <v>964</v>
@@ -9875,7 +9875,7 @@
         <v>473</v>
       </c>
       <c r="C387" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D387" t="s">
         <v>964</v>
@@ -9892,7 +9892,7 @@
         <v>473</v>
       </c>
       <c r="C388" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D388" t="s">
         <v>964</v>
@@ -9909,7 +9909,7 @@
         <v>473</v>
       </c>
       <c r="C389" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D389" t="s">
         <v>964</v>
@@ -9926,7 +9926,7 @@
         <v>473</v>
       </c>
       <c r="C390" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D390" t="s">
         <v>964</v>
@@ -9943,7 +9943,7 @@
         <v>473</v>
       </c>
       <c r="C391" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D391" t="s">
         <v>964</v>
@@ -9960,7 +9960,7 @@
         <v>473</v>
       </c>
       <c r="C392" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D392" t="s">
         <v>964</v>
@@ -9977,7 +9977,7 @@
         <v>473</v>
       </c>
       <c r="C393" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D393" t="s">
         <v>964</v>
@@ -9994,7 +9994,7 @@
         <v>473</v>
       </c>
       <c r="C394" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D394" t="s">
         <v>964</v>
@@ -10011,7 +10011,7 @@
         <v>473</v>
       </c>
       <c r="C395" t="s">
-        <v>479</v>
+        <v>866</v>
       </c>
       <c r="D395" t="s">
         <v>964</v>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -2140,7 +2140,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -742,30 +742,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1012,12 +1012,12 @@
     <t>medhāvī</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -1912,7 +1912,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -2149,30 +2149,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -2419,10 +2419,10 @@
     <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -787,27 +787,27 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2194,27 +2194,27 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2311,7 +2311,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>

--- a/pali-class/vocab/vocab-class8.xlsx
+++ b/pali-class/vocab/vocab-class8.xlsx
@@ -97,321 +97,321 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -526,6 +526,9 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -562,15 +565,15 @@
     <t>gacchati 1</t>
   </si>
   <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
     <t>padahati 1</t>
   </si>
   <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
     <t>pavisati</t>
   </si>
   <si>
@@ -598,9 +601,6 @@
     <t>tiṭṭhati 3</t>
   </si>
   <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -691,6 +691,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -868,21 +868,21 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1036,15 +1036,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>bhāsitar</t>
   </si>
   <si>
@@ -1291,6 +1291,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -1303,15 +1309,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -1510,318 +1510,318 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -1936,6 +1936,9 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -1972,15 +1975,15 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
     <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
   </si>
   <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
     <t>enters; goes (into)</t>
   </si>
   <si>
@@ -2008,9 +2011,6 @@
     <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -2098,6 +2098,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2110,9 +2113,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -2275,21 +2275,21 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -2443,15 +2443,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker; who talks (about)</t>
   </si>
   <si>
@@ -2692,6 +2692,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -2704,13 +2710,7 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
-  </si>
-  <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
     <t>separating (from); aloof (from)</t>
@@ -4478,7 +4478,7 @@
         <v>464</v>
       </c>
       <c r="C69" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D69" t="s">
         <v>930</v>
@@ -4495,7 +4495,7 @@
         <v>464</v>
       </c>
       <c r="C70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D70" t="s">
         <v>930</v>
@@ -4512,7 +4512,7 @@
         <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D71" t="s">
         <v>930</v>
@@ -10088,7 +10088,7 @@
         <v>468</v>
       </c>
       <c r="C399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D399" t="s">
         <v>967</v>
